--- a/interpolated_data.xlsx
+++ b/interpolated_data.xlsx
@@ -15,8 +15,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd HH:mm:ss UTC"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -55,12 +56,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -355,14 +357,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P253"/>
+  <dimension ref="A1:Q253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" style="3" customWidth="1"/>
+    <col min="17" max="17" width="20.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1">
@@ -408,7 +411,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>Date...9</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -446,6 +449,11 @@
           <t>jp_gdp_smooth</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2">
@@ -472,7 +480,7 @@
       <c r="H2">
         <v>10.55339061489279</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="3">
         <v>37987</v>
       </c>
       <c r="J2">
@@ -495,6 +503,9 @@
       </c>
       <c r="P2">
         <v>10.55397635604108</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>37987</v>
       </c>
     </row>
     <row r="3">
@@ -522,7 +533,7 @@
       <c r="H3">
         <v>10.55339061489279</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="3">
         <v>38018</v>
       </c>
       <c r="J3">
@@ -545,6 +556,9 @@
       </c>
       <c r="P3">
         <v>10.5539517794894</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>38018</v>
       </c>
     </row>
     <row r="4">
@@ -572,7 +586,7 @@
       <c r="H4">
         <v>10.55339061489279</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="3">
         <v>38047</v>
       </c>
       <c r="J4">
@@ -595,6 +609,9 @@
       </c>
       <c r="P4">
         <v>10.55390262638604</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>38047</v>
       </c>
     </row>
     <row r="5">
@@ -622,7 +639,7 @@
       <c r="H5">
         <v>10.55339061489279</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="3">
         <v>38078</v>
       </c>
       <c r="J5">
@@ -645,6 +662,9 @@
       </c>
       <c r="P5">
         <v>10.553828896731</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>38078</v>
       </c>
     </row>
     <row r="6">
@@ -672,7 +692,7 @@
       <c r="H6">
         <v>10.55339061489279</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="3">
         <v>38108</v>
       </c>
       <c r="J6">
@@ -695,6 +715,9 @@
       </c>
       <c r="P6">
         <v>10.55373059052428</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>38108</v>
       </c>
     </row>
     <row r="7">
@@ -722,7 +745,7 @@
       <c r="H7">
         <v>10.55339061489279</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="3">
         <v>38139</v>
       </c>
       <c r="J7">
@@ -745,6 +768,9 @@
       </c>
       <c r="P7">
         <v>10.55360770776588</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>38139</v>
       </c>
     </row>
     <row r="8">
@@ -772,7 +798,7 @@
       <c r="H8">
         <v>10.55339061489279</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="3">
         <v>38169</v>
       </c>
       <c r="J8">
@@ -795,6 +821,9 @@
       </c>
       <c r="P8">
         <v>10.5534602484558</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>38169</v>
       </c>
     </row>
     <row r="9">
@@ -822,7 +851,7 @@
       <c r="H9">
         <v>10.55339061489279</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="3">
         <v>38200</v>
       </c>
       <c r="J9">
@@ -845,6 +874,9 @@
       </c>
       <c r="P9">
         <v>10.55328821259404</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>38200</v>
       </c>
     </row>
     <row r="10">
@@ -872,7 +904,7 @@
       <c r="H10">
         <v>10.55339061489279</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="3">
         <v>38231</v>
       </c>
       <c r="J10">
@@ -895,6 +927,9 @@
       </c>
       <c r="P10">
         <v>10.55309160018061</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>38231</v>
       </c>
     </row>
     <row r="11">
@@ -922,7 +957,7 @@
       <c r="H11">
         <v>10.55339061489279</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="3">
         <v>38261</v>
       </c>
       <c r="J11">
@@ -945,6 +980,9 @@
       </c>
       <c r="P11">
         <v>10.55287041121549</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>38261</v>
       </c>
     </row>
     <row r="12">
@@ -972,7 +1010,7 @@
       <c r="H12">
         <v>10.55339061489279</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="3">
         <v>38292</v>
       </c>
       <c r="J12">
@@ -995,6 +1033,9 @@
       </c>
       <c r="P12">
         <v>10.55262464569869</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>38292</v>
       </c>
     </row>
     <row r="13">
@@ -1022,7 +1063,7 @@
       <c r="H13">
         <v>10.55339061489279</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="3">
         <v>38322</v>
       </c>
       <c r="J13">
@@ -1045,6 +1086,9 @@
       </c>
       <c r="P13">
         <v>10.55235430363021</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>38322</v>
       </c>
     </row>
     <row r="14">
@@ -1072,7 +1116,7 @@
       <c r="H14">
         <v>10.5405697300881</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="3">
         <v>38353</v>
       </c>
       <c r="J14">
@@ -1095,6 +1139,9 @@
       </c>
       <c r="P14">
         <v>10.55205938501006</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>38353</v>
       </c>
     </row>
     <row r="15">
@@ -1122,7 +1169,7 @@
       <c r="H15">
         <v>10.5405697300881</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="3">
         <v>38384</v>
       </c>
       <c r="J15">
@@ -1145,6 +1192,9 @@
       </c>
       <c r="P15">
         <v>10.55135044110972</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>38384</v>
       </c>
     </row>
     <row r="16">
@@ -1172,7 +1222,7 @@
       <c r="H16">
         <v>10.5405697300881</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="3">
         <v>38412</v>
       </c>
       <c r="J16">
@@ -1195,6 +1245,9 @@
       </c>
       <c r="P16">
         <v>10.55022747192918</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>38412</v>
       </c>
     </row>
     <row r="17">
@@ -1222,7 +1275,7 @@
       <c r="H17">
         <v>10.5405697300881</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="3">
         <v>38443</v>
       </c>
       <c r="J17">
@@ -1245,6 +1298,9 @@
       </c>
       <c r="P17">
         <v>10.54869047746845</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>38443</v>
       </c>
     </row>
     <row r="18">
@@ -1272,7 +1328,7 @@
       <c r="H18">
         <v>10.5405697300881</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="3">
         <v>38473</v>
       </c>
       <c r="J18">
@@ -1295,6 +1351,9 @@
       </c>
       <c r="P18">
         <v>10.54673945772754</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>38473</v>
       </c>
     </row>
     <row r="19">
@@ -1322,7 +1381,7 @@
       <c r="H19">
         <v>10.5405697300881</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="3">
         <v>38504</v>
       </c>
       <c r="J19">
@@ -1345,6 +1404,9 @@
       </c>
       <c r="P19">
         <v>10.54437441270644</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>38504</v>
       </c>
     </row>
     <row r="20">
@@ -1372,7 +1434,7 @@
       <c r="H20">
         <v>10.5405697300881</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="3">
         <v>38534</v>
       </c>
       <c r="J20">
@@ -1395,6 +1457,9 @@
       </c>
       <c r="P20">
         <v>10.54159534240515</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>38534</v>
       </c>
     </row>
     <row r="21">
@@ -1422,7 +1487,7 @@
       <c r="H21">
         <v>10.5405697300881</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="3">
         <v>38565</v>
       </c>
       <c r="J21">
@@ -1445,6 +1510,9 @@
       </c>
       <c r="P21">
         <v>10.53840224682367</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>38565</v>
       </c>
     </row>
     <row r="22">
@@ -1472,7 +1540,7 @@
       <c r="H22">
         <v>10.5405697300881</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="3">
         <v>38596</v>
       </c>
       <c r="J22">
@@ -1495,6 +1563,9 @@
       </c>
       <c r="P22">
         <v>10.534795125962</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>38596</v>
       </c>
     </row>
     <row r="23">
@@ -1522,7 +1593,7 @@
       <c r="H23">
         <v>10.5405697300881</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="3">
         <v>38626</v>
       </c>
       <c r="J23">
@@ -1545,6 +1616,9 @@
       </c>
       <c r="P23">
         <v>10.53077397982014</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>38626</v>
       </c>
     </row>
     <row r="24">
@@ -1572,7 +1646,7 @@
       <c r="H24">
         <v>10.5405697300881</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="3">
         <v>38657</v>
       </c>
       <c r="J24">
@@ -1595,6 +1669,9 @@
       </c>
       <c r="P24">
         <v>10.52633880839809</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>38657</v>
       </c>
     </row>
     <row r="25">
@@ -1622,7 +1699,7 @@
       <c r="H25">
         <v>10.5405697300881</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="3">
         <v>38687</v>
       </c>
       <c r="J25">
@@ -1645,6 +1722,9 @@
       </c>
       <c r="P25">
         <v>10.52148961169586</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>38687</v>
       </c>
     </row>
     <row r="26">
@@ -1672,7 +1752,7 @@
       <c r="H26">
         <v>10.49188236581187</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26" s="3">
         <v>38718</v>
       </c>
       <c r="J26">
@@ -1695,6 +1775,9 @@
       </c>
       <c r="P26">
         <v>10.51622638971343</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>38718</v>
       </c>
     </row>
     <row r="27">
@@ -1722,7 +1805,7 @@
       <c r="H27">
         <v>10.49188236581187</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I27" s="3">
         <v>38749</v>
       </c>
       <c r="J27">
@@ -1745,6 +1828,9 @@
       </c>
       <c r="P27">
         <v>10.51115632984297</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>38749</v>
       </c>
     </row>
     <row r="28">
@@ -1772,7 +1858,7 @@
       <c r="H28">
         <v>10.49188236581187</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I28" s="3">
         <v>38777</v>
       </c>
       <c r="J28">
@@ -1795,6 +1881,9 @@
       </c>
       <c r="P28">
         <v>10.50627943208446</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>38777</v>
       </c>
     </row>
     <row r="29">
@@ -1822,7 +1911,7 @@
       <c r="H29">
         <v>10.49188236581187</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="3">
         <v>38808</v>
       </c>
       <c r="J29">
@@ -1845,6 +1934,9 @@
       </c>
       <c r="P29">
         <v>10.50159569643791</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>38808</v>
       </c>
     </row>
     <row r="30">
@@ -1872,7 +1964,7 @@
       <c r="H30">
         <v>10.49188236581187</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I30" s="3">
         <v>38838</v>
       </c>
       <c r="J30">
@@ -1895,6 +1987,9 @@
       </c>
       <c r="P30">
         <v>10.49710512290333</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>38838</v>
       </c>
     </row>
     <row r="31">
@@ -1922,7 +2017,7 @@
       <c r="H31">
         <v>10.49188236581187</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I31" s="3">
         <v>38869</v>
       </c>
       <c r="J31">
@@ -1945,6 +2040,9 @@
       </c>
       <c r="P31">
         <v>10.4928077114807</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>38869</v>
       </c>
     </row>
     <row r="32">
@@ -1972,7 +2070,7 @@
       <c r="H32">
         <v>10.49188236581187</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I32" s="3">
         <v>38899</v>
       </c>
       <c r="J32">
@@ -1995,6 +2093,9 @@
       </c>
       <c r="P32">
         <v>10.48870346217002</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>38899</v>
       </c>
     </row>
     <row r="33">
@@ -2022,7 +2123,7 @@
       <c r="H33">
         <v>10.49188236581187</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I33" s="3">
         <v>38930</v>
       </c>
       <c r="J33">
@@ -2045,6 +2146,9 @@
       </c>
       <c r="P33">
         <v>10.48479237497131</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>38930</v>
       </c>
     </row>
     <row r="34">
@@ -2072,7 +2176,7 @@
       <c r="H34">
         <v>10.49188236581187</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I34" s="3">
         <v>38961</v>
       </c>
       <c r="J34">
@@ -2095,6 +2199,9 @@
       </c>
       <c r="P34">
         <v>10.48107444988456</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>38961</v>
       </c>
     </row>
     <row r="35">
@@ -2122,7 +2229,7 @@
       <c r="H35">
         <v>10.49188236581187</v>
       </c>
-      <c r="I35" s="2">
+      <c r="I35" s="3">
         <v>38991</v>
       </c>
       <c r="J35">
@@ -2145,6 +2252,9 @@
       </c>
       <c r="P35">
         <v>10.47754968690977</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>38991</v>
       </c>
     </row>
     <row r="36">
@@ -2172,7 +2282,7 @@
       <c r="H36">
         <v>10.49188236581187</v>
       </c>
-      <c r="I36" s="2">
+      <c r="I36" s="3">
         <v>39022</v>
       </c>
       <c r="J36">
@@ -2195,6 +2305,9 @@
       </c>
       <c r="P36">
         <v>10.47421808604694</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>39022</v>
       </c>
     </row>
     <row r="37">
@@ -2222,7 +2335,7 @@
       <c r="H37">
         <v>10.49188236581187</v>
       </c>
-      <c r="I37" s="2">
+      <c r="I37" s="3">
         <v>39052</v>
       </c>
       <c r="J37">
@@ -2245,6 +2358,9 @@
       </c>
       <c r="P37">
         <v>10.47107964729607</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>39052</v>
       </c>
     </row>
     <row r="38">
@@ -2272,7 +2388,7 @@
       <c r="H38">
         <v>10.48702163244715</v>
       </c>
-      <c r="I38" s="2">
+      <c r="I38" s="3">
         <v>39083</v>
       </c>
       <c r="J38">
@@ -2295,6 +2411,9 @@
       </c>
       <c r="P38">
         <v>10.46813437065715</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>39083</v>
       </c>
     </row>
     <row r="39">
@@ -2322,7 +2441,7 @@
       <c r="H39">
         <v>10.48702163244715</v>
       </c>
-      <c r="I39" s="2">
+      <c r="I39" s="3">
         <v>39114</v>
       </c>
       <c r="J39">
@@ -2345,6 +2464,9 @@
       </c>
       <c r="P39">
         <v>10.46666124576525</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>39114</v>
       </c>
     </row>
     <row r="40">
@@ -2372,7 +2494,7 @@
       <c r="H40">
         <v>10.48702163244715</v>
       </c>
-      <c r="I40" s="2">
+      <c r="I40" s="3">
         <v>39142</v>
       </c>
       <c r="J40">
@@ -2395,6 +2517,9 @@
       </c>
       <c r="P40">
         <v>10.46666027262038</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>39142</v>
       </c>
     </row>
     <row r="41">
@@ -2422,7 +2547,7 @@
       <c r="H41">
         <v>10.48702163244715</v>
       </c>
-      <c r="I41" s="2">
+      <c r="I41" s="3">
         <v>39173</v>
       </c>
       <c r="J41">
@@ -2445,6 +2570,9 @@
       </c>
       <c r="P41">
         <v>10.46813145122252</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>39173</v>
       </c>
     </row>
     <row r="42">
@@ -2472,7 +2600,7 @@
       <c r="H42">
         <v>10.48702163244715</v>
       </c>
-      <c r="I42" s="2">
+      <c r="I42" s="3">
         <v>39203</v>
       </c>
       <c r="J42">
@@ -2495,6 +2623,9 @@
       </c>
       <c r="P42">
         <v>10.47107478157169</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>39203</v>
       </c>
     </row>
     <row r="43">
@@ -2522,7 +2653,7 @@
       <c r="H43">
         <v>10.48702163244715</v>
       </c>
-      <c r="I43" s="2">
+      <c r="I43" s="3">
         <v>39234</v>
       </c>
       <c r="J43">
@@ -2545,6 +2676,9 @@
       </c>
       <c r="P43">
         <v>10.47549026366786</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>39234</v>
       </c>
     </row>
     <row r="44">
@@ -2572,7 +2706,7 @@
       <c r="H44">
         <v>10.48702163244715</v>
       </c>
-      <c r="I44" s="2">
+      <c r="I44" s="3">
         <v>39264</v>
       </c>
       <c r="J44">
@@ -2595,6 +2729,9 @@
       </c>
       <c r="P44">
         <v>10.48137789751106</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>39264</v>
       </c>
     </row>
     <row r="45">
@@ -2622,7 +2759,7 @@
       <c r="H45">
         <v>10.48702163244715</v>
       </c>
-      <c r="I45" s="2">
+      <c r="I45" s="3">
         <v>39295</v>
       </c>
       <c r="J45">
@@ -2645,6 +2782,9 @@
       </c>
       <c r="P45">
         <v>10.48873768310128</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>39295</v>
       </c>
     </row>
     <row r="46">
@@ -2672,7 +2812,7 @@
       <c r="H46">
         <v>10.48702163244715</v>
       </c>
-      <c r="I46" s="2">
+      <c r="I46" s="3">
         <v>39326</v>
       </c>
       <c r="J46">
@@ -2695,6 +2835,9 @@
       </c>
       <c r="P46">
         <v>10.49756962043851</v>
+      </c>
+      <c r="Q46" s="2">
+        <v>39326</v>
       </c>
     </row>
     <row r="47">
@@ -2722,7 +2865,7 @@
       <c r="H47">
         <v>10.48702163244715</v>
       </c>
-      <c r="I47" s="2">
+      <c r="I47" s="3">
         <v>39356</v>
       </c>
       <c r="J47">
@@ -2745,6 +2888,9 @@
       </c>
       <c r="P47">
         <v>10.50787370952277</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>39356</v>
       </c>
     </row>
     <row r="48">
@@ -2772,7 +2918,7 @@
       <c r="H48">
         <v>10.48702163244715</v>
       </c>
-      <c r="I48" s="2">
+      <c r="I48" s="3">
         <v>39387</v>
       </c>
       <c r="J48">
@@ -2795,6 +2941,9 @@
       </c>
       <c r="P48">
         <v>10.51964995035404</v>
+      </c>
+      <c r="Q48" s="2">
+        <v>39387</v>
       </c>
     </row>
     <row r="49">
@@ -2822,7 +2971,7 @@
       <c r="H49">
         <v>10.48702163244715</v>
       </c>
-      <c r="I49" s="2">
+      <c r="I49" s="3">
         <v>39417</v>
       </c>
       <c r="J49">
@@ -2845,6 +2994,9 @@
       </c>
       <c r="P49">
         <v>10.53289834293234</v>
+      </c>
+      <c r="Q49" s="2">
+        <v>39417</v>
       </c>
     </row>
     <row r="50">
@@ -2872,7 +3024,7 @@
       <c r="H50">
         <v>10.59643621339234</v>
       </c>
-      <c r="I50" s="2">
+      <c r="I50" s="3">
         <v>39448</v>
       </c>
       <c r="J50">
@@ -2895,6 +3047,9 @@
       </c>
       <c r="P50">
         <v>10.54761888725764</v>
+      </c>
+      <c r="Q50" s="2">
+        <v>39448</v>
       </c>
     </row>
     <row r="51">
@@ -2922,7 +3077,7 @@
       <c r="H51">
         <v>10.59643621339234</v>
       </c>
-      <c r="I51" s="2">
+      <c r="I51" s="3">
         <v>39479</v>
       </c>
       <c r="J51">
@@ -2945,6 +3100,9 @@
       </c>
       <c r="P51">
         <v>10.56099066231073</v>
+      </c>
+      <c r="Q51" s="2">
+        <v>39479</v>
       </c>
     </row>
     <row r="52">
@@ -2972,7 +3130,7 @@
       <c r="H52">
         <v>10.59643621339234</v>
       </c>
-      <c r="I52" s="2">
+      <c r="I52" s="3">
         <v>39508</v>
       </c>
       <c r="J52">
@@ -2995,6 +3153,9 @@
       </c>
       <c r="P52">
         <v>10.5730136680916</v>
+      </c>
+      <c r="Q52" s="2">
+        <v>39508</v>
       </c>
     </row>
     <row r="53">
@@ -3022,7 +3183,7 @@
       <c r="H53">
         <v>10.59643621339234</v>
       </c>
-      <c r="I53" s="2">
+      <c r="I53" s="3">
         <v>39539</v>
       </c>
       <c r="J53">
@@ -3045,6 +3206,9 @@
       </c>
       <c r="P53">
         <v>10.58368790460025</v>
+      </c>
+      <c r="Q53" s="2">
+        <v>39539</v>
       </c>
     </row>
     <row r="54">
@@ -3072,7 +3236,7 @@
       <c r="H54">
         <v>10.59643621339234</v>
       </c>
-      <c r="I54" s="2">
+      <c r="I54" s="3">
         <v>39569</v>
       </c>
       <c r="J54">
@@ -3095,6 +3259,9 @@
       </c>
       <c r="P54">
         <v>10.59301337183669</v>
+      </c>
+      <c r="Q54" s="2">
+        <v>39569</v>
       </c>
     </row>
     <row r="55">
@@ -3122,7 +3289,7 @@
       <c r="H55">
         <v>10.59643621339234</v>
       </c>
-      <c r="I55" s="2">
+      <c r="I55" s="3">
         <v>39600</v>
       </c>
       <c r="J55">
@@ -3145,6 +3312,9 @@
       </c>
       <c r="P55">
         <v>10.6009900698009</v>
+      </c>
+      <c r="Q55" s="2">
+        <v>39600</v>
       </c>
     </row>
     <row r="56">
@@ -3172,7 +3342,7 @@
       <c r="H56">
         <v>10.59643621339234</v>
       </c>
-      <c r="I56" s="2">
+      <c r="I56" s="3">
         <v>39630</v>
       </c>
       <c r="J56">
@@ -3195,6 +3365,9 @@
       </c>
       <c r="P56">
         <v>10.60761799849288</v>
+      </c>
+      <c r="Q56" s="2">
+        <v>39630</v>
       </c>
     </row>
     <row r="57">
@@ -3222,7 +3395,7 @@
       <c r="H57">
         <v>10.59643621339234</v>
       </c>
-      <c r="I57" s="2">
+      <c r="I57" s="3">
         <v>39661</v>
       </c>
       <c r="J57">
@@ -3245,6 +3418,9 @@
       </c>
       <c r="P57">
         <v>10.61289715791265</v>
+      </c>
+      <c r="Q57" s="2">
+        <v>39661</v>
       </c>
     </row>
     <row r="58">
@@ -3272,7 +3448,7 @@
       <c r="H58">
         <v>10.59643621339234</v>
       </c>
-      <c r="I58" s="2">
+      <c r="I58" s="3">
         <v>39692</v>
       </c>
       <c r="J58">
@@ -3295,6 +3471,9 @@
       </c>
       <c r="P58">
         <v>10.6168275480602</v>
+      </c>
+      <c r="Q58" s="2">
+        <v>39692</v>
       </c>
     </row>
     <row r="59">
@@ -3322,7 +3501,7 @@
       <c r="H59">
         <v>10.59643621339234</v>
       </c>
-      <c r="I59" s="2">
+      <c r="I59" s="3">
         <v>39722</v>
       </c>
       <c r="J59">
@@ -3345,6 +3524,9 @@
       </c>
       <c r="P59">
         <v>10.61940916893554</v>
+      </c>
+      <c r="Q59" s="2">
+        <v>39722</v>
       </c>
     </row>
     <row r="60">
@@ -3372,7 +3554,7 @@
       <c r="H60">
         <v>10.59643621339234</v>
       </c>
-      <c r="I60" s="2">
+      <c r="I60" s="3">
         <v>39753</v>
       </c>
       <c r="J60">
@@ -3395,6 +3577,9 @@
       </c>
       <c r="P60">
         <v>10.62064202053863</v>
+      </c>
+      <c r="Q60" s="2">
+        <v>39753</v>
       </c>
     </row>
     <row r="61">
@@ -3422,7 +3607,7 @@
       <c r="H61">
         <v>10.59643621339234</v>
       </c>
-      <c r="I61" s="2">
+      <c r="I61" s="3">
         <v>39783</v>
       </c>
       <c r="J61">
@@ -3445,6 +3630,9 @@
       </c>
       <c r="P61">
         <v>10.62052610286953</v>
+      </c>
+      <c r="Q61" s="2">
+        <v>39783</v>
       </c>
     </row>
     <row r="62">
@@ -3472,7 +3660,7 @@
       <c r="H62">
         <v>10.63272007938894</v>
       </c>
-      <c r="I62" s="2">
+      <c r="I62" s="3">
         <v>39814</v>
       </c>
       <c r="J62">
@@ -3495,6 +3683,9 @@
       </c>
       <c r="P62">
         <v>10.6190614159282</v>
+      </c>
+      <c r="Q62" s="2">
+        <v>39814</v>
       </c>
     </row>
     <row r="63">
@@ -3522,7 +3713,7 @@
       <c r="H63">
         <v>10.63272007938894</v>
       </c>
-      <c r="I63" s="2">
+      <c r="I63" s="3">
         <v>39845</v>
       </c>
       <c r="J63">
@@ -3545,6 +3736,9 @@
       </c>
       <c r="P63">
         <v>10.61850782444021</v>
+      </c>
+      <c r="Q63" s="2">
+        <v>39845</v>
       </c>
     </row>
     <row r="64">
@@ -3572,7 +3766,7 @@
       <c r="H64">
         <v>10.63272007938894</v>
       </c>
-      <c r="I64" s="2">
+      <c r="I64" s="3">
         <v>39873</v>
       </c>
       <c r="J64">
@@ -3595,6 +3789,9 @@
       </c>
       <c r="P64">
         <v>10.61886532840557</v>
+      </c>
+      <c r="Q64" s="2">
+        <v>39873</v>
       </c>
     </row>
     <row r="65">
@@ -3622,7 +3819,7 @@
       <c r="H65">
         <v>10.63272007938894</v>
       </c>
-      <c r="I65" s="2">
+      <c r="I65" s="3">
         <v>39904</v>
       </c>
       <c r="J65">
@@ -3645,6 +3842,9 @@
       </c>
       <c r="P65">
         <v>10.62013392782426</v>
+      </c>
+      <c r="Q65" s="2">
+        <v>39904</v>
       </c>
     </row>
     <row r="66">
@@ -3672,7 +3872,7 @@
       <c r="H66">
         <v>10.63272007938894</v>
       </c>
-      <c r="I66" s="2">
+      <c r="I66" s="3">
         <v>39934</v>
       </c>
       <c r="J66">
@@ -3695,6 +3895,9 @@
       </c>
       <c r="P66">
         <v>10.6223136226963</v>
+      </c>
+      <c r="Q66" s="2">
+        <v>39934</v>
       </c>
     </row>
     <row r="67">
@@ -3722,7 +3925,7 @@
       <c r="H67">
         <v>10.63272007938894</v>
       </c>
-      <c r="I67" s="2">
+      <c r="I67" s="3">
         <v>39965</v>
       </c>
       <c r="J67">
@@ -3745,6 +3948,9 @@
       </c>
       <c r="P67">
         <v>10.62540441302168</v>
+      </c>
+      <c r="Q67" s="2">
+        <v>39965</v>
       </c>
     </row>
     <row r="68">
@@ -3772,7 +3978,7 @@
       <c r="H68">
         <v>10.63272007938894</v>
       </c>
-      <c r="I68" s="2">
+      <c r="I68" s="3">
         <v>39995</v>
       </c>
       <c r="J68">
@@ -3795,6 +4001,9 @@
       </c>
       <c r="P68">
         <v>10.62940629880041</v>
+      </c>
+      <c r="Q68" s="2">
+        <v>39995</v>
       </c>
     </row>
     <row r="69">
@@ -3822,7 +4031,7 @@
       <c r="H69">
         <v>10.63272007938894</v>
       </c>
-      <c r="I69" s="2">
+      <c r="I69" s="3">
         <v>40026</v>
       </c>
       <c r="J69">
@@ -3845,6 +4054,9 @@
       </c>
       <c r="P69">
         <v>10.63431928003247</v>
+      </c>
+      <c r="Q69" s="2">
+        <v>40026</v>
       </c>
     </row>
     <row r="70">
@@ -3872,7 +4084,7 @@
       <c r="H70">
         <v>10.63272007938894</v>
       </c>
-      <c r="I70" s="2">
+      <c r="I70" s="3">
         <v>40057</v>
       </c>
       <c r="J70">
@@ -3895,6 +4107,9 @@
       </c>
       <c r="P70">
         <v>10.64014335671789</v>
+      </c>
+      <c r="Q70" s="2">
+        <v>40057</v>
       </c>
     </row>
     <row r="71">
@@ -3922,7 +4137,7 @@
       <c r="H71">
         <v>10.63272007938894</v>
       </c>
-      <c r="I71" s="2">
+      <c r="I71" s="3">
         <v>40087</v>
       </c>
       <c r="J71">
@@ -3945,6 +4160,9 @@
       </c>
       <c r="P71">
         <v>10.64687852885664</v>
+      </c>
+      <c r="Q71" s="2">
+        <v>40087</v>
       </c>
     </row>
     <row r="72">
@@ -3972,7 +4190,7 @@
       <c r="H72">
         <v>10.63272007938894</v>
       </c>
-      <c r="I72" s="2">
+      <c r="I72" s="3">
         <v>40118</v>
       </c>
       <c r="J72">
@@ -3995,6 +4213,9 @@
       </c>
       <c r="P72">
         <v>10.65452479644874</v>
+      </c>
+      <c r="Q72" s="2">
+        <v>40118</v>
       </c>
     </row>
     <row r="73">
@@ -4022,7 +4243,7 @@
       <c r="H73">
         <v>10.63272007938894</v>
       </c>
-      <c r="I73" s="2">
+      <c r="I73" s="3">
         <v>40148</v>
       </c>
       <c r="J73">
@@ -4045,6 +4266,9 @@
       </c>
       <c r="P73">
         <v>10.66308215949418</v>
+      </c>
+      <c r="Q73" s="2">
+        <v>40148</v>
       </c>
     </row>
     <row r="74">
@@ -4072,7 +4296,7 @@
       <c r="H74">
         <v>10.71743091355769</v>
       </c>
-      <c r="I74" s="2">
+      <c r="I74" s="3">
         <v>40179</v>
       </c>
       <c r="J74">
@@ -4095,6 +4319,9 @@
       </c>
       <c r="P74">
         <v>10.67255061799296</v>
+      </c>
+      <c r="Q74" s="2">
+        <v>40179</v>
       </c>
     </row>
     <row r="75">
@@ -4122,7 +4349,7 @@
       <c r="H75">
         <v>10.71743091355769</v>
       </c>
-      <c r="I75" s="2">
+      <c r="I75" s="3">
         <v>40210</v>
       </c>
       <c r="J75">
@@ -4145,6 +4372,9 @@
       </c>
       <c r="P75">
         <v>10.6817171369318</v>
+      </c>
+      <c r="Q75" s="2">
+        <v>40210</v>
       </c>
     </row>
     <row r="76">
@@ -4172,7 +4402,7 @@
       <c r="H76">
         <v>10.71743091355769</v>
       </c>
-      <c r="I76" s="2">
+      <c r="I76" s="3">
         <v>40238</v>
       </c>
       <c r="J76">
@@ -4195,6 +4425,9 @@
       </c>
       <c r="P76">
         <v>10.6905817163107</v>
+      </c>
+      <c r="Q76" s="2">
+        <v>40238</v>
       </c>
     </row>
     <row r="77">
@@ -4222,7 +4455,7 @@
       <c r="H77">
         <v>10.71743091355769</v>
       </c>
-      <c r="I77" s="2">
+      <c r="I77" s="3">
         <v>40269</v>
       </c>
       <c r="J77">
@@ -4245,6 +4478,9 @@
       </c>
       <c r="P77">
         <v>10.69914435612965</v>
+      </c>
+      <c r="Q77" s="2">
+        <v>40269</v>
       </c>
     </row>
     <row r="78">
@@ -4272,7 +4508,7 @@
       <c r="H78">
         <v>10.71743091355769</v>
       </c>
-      <c r="I78" s="2">
+      <c r="I78" s="3">
         <v>40299</v>
       </c>
       <c r="J78">
@@ -4295,6 +4531,9 @@
       </c>
       <c r="P78">
         <v>10.70740505638866</v>
+      </c>
+      <c r="Q78" s="2">
+        <v>40299</v>
       </c>
     </row>
     <row r="79">
@@ -4322,7 +4561,7 @@
       <c r="H79">
         <v>10.71743091355769</v>
       </c>
-      <c r="I79" s="2">
+      <c r="I79" s="3">
         <v>40330</v>
       </c>
       <c r="J79">
@@ -4345,6 +4584,9 @@
       </c>
       <c r="P79">
         <v>10.71536381708773</v>
+      </c>
+      <c r="Q79" s="2">
+        <v>40330</v>
       </c>
     </row>
     <row r="80">
@@ -4372,7 +4614,7 @@
       <c r="H80">
         <v>10.71743091355769</v>
       </c>
-      <c r="I80" s="2">
+      <c r="I80" s="3">
         <v>40360</v>
       </c>
       <c r="J80">
@@ -4395,6 +4637,9 @@
       </c>
       <c r="P80">
         <v>10.72302063822686</v>
+      </c>
+      <c r="Q80" s="2">
+        <v>40360</v>
       </c>
     </row>
     <row r="81">
@@ -4422,7 +4667,7 @@
       <c r="H81">
         <v>10.71743091355769</v>
       </c>
-      <c r="I81" s="2">
+      <c r="I81" s="3">
         <v>40391</v>
       </c>
       <c r="J81">
@@ -4445,6 +4690,9 @@
       </c>
       <c r="P81">
         <v>10.73037551980604</v>
+      </c>
+      <c r="Q81" s="2">
+        <v>40391</v>
       </c>
     </row>
     <row r="82">
@@ -4472,7 +4720,7 @@
       <c r="H82">
         <v>10.71743091355769</v>
       </c>
-      <c r="I82" s="2">
+      <c r="I82" s="3">
         <v>40422</v>
       </c>
       <c r="J82">
@@ -4495,6 +4743,9 @@
       </c>
       <c r="P82">
         <v>10.73742846182528</v>
+      </c>
+      <c r="Q82" s="2">
+        <v>40422</v>
       </c>
     </row>
     <row r="83">
@@ -4522,7 +4773,7 @@
       <c r="H83">
         <v>10.71743091355769</v>
       </c>
-      <c r="I83" s="2">
+      <c r="I83" s="3">
         <v>40452</v>
       </c>
       <c r="J83">
@@ -4545,6 +4796,9 @@
       </c>
       <c r="P83">
         <v>10.74417946428458</v>
+      </c>
+      <c r="Q83" s="2">
+        <v>40452</v>
       </c>
     </row>
     <row r="84">
@@ -4572,7 +4826,7 @@
       <c r="H84">
         <v>10.71743091355769</v>
       </c>
-      <c r="I84" s="2">
+      <c r="I84" s="3">
         <v>40483</v>
       </c>
       <c r="J84">
@@ -4595,6 +4849,9 @@
       </c>
       <c r="P84">
         <v>10.75062852718394</v>
+      </c>
+      <c r="Q84" s="2">
+        <v>40483</v>
       </c>
     </row>
     <row r="85">
@@ -4622,7 +4879,7 @@
       <c r="H85">
         <v>10.71743091355769</v>
       </c>
-      <c r="I85" s="2">
+      <c r="I85" s="3">
         <v>40513</v>
       </c>
       <c r="J85">
@@ -4645,6 +4902,9 @@
       </c>
       <c r="P85">
         <v>10.75677565052335</v>
+      </c>
+      <c r="Q85" s="2">
+        <v>40513</v>
       </c>
     </row>
     <row r="86">
@@ -4672,7 +4932,7 @@
       <c r="H86">
         <v>10.7946843488006</v>
       </c>
-      <c r="I86" s="2">
+      <c r="I86" s="3">
         <v>40544</v>
       </c>
       <c r="J86">
@@ -4695,6 +4955,9 @@
       </c>
       <c r="P86">
         <v>10.76262083430282</v>
+      </c>
+      <c r="Q86" s="2">
+        <v>40544</v>
       </c>
     </row>
     <row r="87">
@@ -4722,7 +4985,7 @@
       <c r="H87">
         <v>10.7946843488006</v>
       </c>
-      <c r="I87" s="2">
+      <c r="I87" s="3">
         <v>40575</v>
       </c>
       <c r="J87">
@@ -4745,6 +5008,9 @@
       </c>
       <c r="P87">
         <v>10.76846245180442</v>
+      </c>
+      <c r="Q87" s="2">
+        <v>40575</v>
       </c>
     </row>
     <row r="88">
@@ -4772,7 +5038,7 @@
       <c r="H88">
         <v>10.7946843488006</v>
       </c>
-      <c r="I88" s="2">
+      <c r="I88" s="3">
         <v>40603</v>
       </c>
       <c r="J88">
@@ -4795,6 +5061,9 @@
       </c>
       <c r="P88">
         <v>10.77430050302814</v>
+      </c>
+      <c r="Q88" s="2">
+        <v>40603</v>
       </c>
     </row>
     <row r="89">
@@ -4822,7 +5091,7 @@
       <c r="H89">
         <v>10.7946843488006</v>
       </c>
-      <c r="I89" s="2">
+      <c r="I89" s="3">
         <v>40634</v>
       </c>
       <c r="J89">
@@ -4845,6 +5114,9 @@
       </c>
       <c r="P89">
         <v>10.78013498797398</v>
+      </c>
+      <c r="Q89" s="2">
+        <v>40634</v>
       </c>
     </row>
     <row r="90">
@@ -4872,7 +5144,7 @@
       <c r="H90">
         <v>10.7946843488006</v>
       </c>
-      <c r="I90" s="2">
+      <c r="I90" s="3">
         <v>40664</v>
       </c>
       <c r="J90">
@@ -4895,6 +5167,9 @@
       </c>
       <c r="P90">
         <v>10.78596590664194</v>
+      </c>
+      <c r="Q90" s="2">
+        <v>40664</v>
       </c>
     </row>
     <row r="91">
@@ -4922,7 +5197,7 @@
       <c r="H91">
         <v>10.7946843488006</v>
       </c>
-      <c r="I91" s="2">
+      <c r="I91" s="3">
         <v>40695</v>
       </c>
       <c r="J91">
@@ -4945,6 +5220,9 @@
       </c>
       <c r="P91">
         <v>10.79179325903204</v>
+      </c>
+      <c r="Q91" s="2">
+        <v>40695</v>
       </c>
     </row>
     <row r="92">
@@ -4972,7 +5250,7 @@
       <c r="H92">
         <v>10.7946843488006</v>
       </c>
-      <c r="I92" s="2">
+      <c r="I92" s="3">
         <v>40725</v>
       </c>
       <c r="J92">
@@ -4995,6 +5273,9 @@
       </c>
       <c r="P92">
         <v>10.79761704514426</v>
+      </c>
+      <c r="Q92" s="2">
+        <v>40725</v>
       </c>
     </row>
     <row r="93">
@@ -5022,7 +5303,7 @@
       <c r="H93">
         <v>10.7946843488006</v>
       </c>
-      <c r="I93" s="2">
+      <c r="I93" s="3">
         <v>40756</v>
       </c>
       <c r="J93">
@@ -5045,6 +5326,9 @@
       </c>
       <c r="P93">
         <v>10.8034372649786</v>
+      </c>
+      <c r="Q93" s="2">
+        <v>40756</v>
       </c>
     </row>
     <row r="94">
@@ -5072,7 +5356,7 @@
       <c r="H94">
         <v>10.7946843488006</v>
       </c>
-      <c r="I94" s="2">
+      <c r="I94" s="3">
         <v>40787</v>
       </c>
       <c r="J94">
@@ -5095,6 +5379,9 @@
       </c>
       <c r="P94">
         <v>10.80925391853506</v>
+      </c>
+      <c r="Q94" s="2">
+        <v>40787</v>
       </c>
     </row>
     <row r="95">
@@ -5122,7 +5409,7 @@
       <c r="H95">
         <v>10.7946843488006</v>
       </c>
-      <c r="I95" s="2">
+      <c r="I95" s="3">
         <v>40817</v>
       </c>
       <c r="J95">
@@ -5145,6 +5432,9 @@
       </c>
       <c r="P95">
         <v>10.81506700581365</v>
+      </c>
+      <c r="Q95" s="2">
+        <v>40817</v>
       </c>
     </row>
     <row r="96">
@@ -5172,7 +5462,7 @@
       <c r="H96">
         <v>10.7946843488006</v>
       </c>
-      <c r="I96" s="2">
+      <c r="I96" s="3">
         <v>40848</v>
       </c>
       <c r="J96">
@@ -5195,6 +5485,9 @@
       </c>
       <c r="P96">
         <v>10.82087652681437</v>
+      </c>
+      <c r="Q96" s="2">
+        <v>40848</v>
       </c>
     </row>
     <row r="97">
@@ -5222,7 +5515,7 @@
       <c r="H97">
         <v>10.7946843488006</v>
       </c>
-      <c r="I97" s="2">
+      <c r="I97" s="3">
         <v>40878</v>
       </c>
       <c r="J97">
@@ -5245,6 +5538,9 @@
       </c>
       <c r="P97">
         <v>10.82668248153721</v>
+      </c>
+      <c r="Q97" s="2">
+        <v>40878</v>
       </c>
     </row>
     <row r="98">
@@ -5272,7 +5568,7 @@
       <c r="H98">
         <v>10.80314135500078</v>
       </c>
-      <c r="I98" s="2">
+      <c r="I98" s="3">
         <v>40909</v>
       </c>
       <c r="J98">
@@ -5295,6 +5591,9 @@
       </c>
       <c r="P98">
         <v>10.83248486998218</v>
+      </c>
+      <c r="Q98" s="2">
+        <v>40909</v>
       </c>
     </row>
     <row r="99">
@@ -5322,7 +5621,7 @@
       <c r="H99">
         <v>10.80314135500078</v>
       </c>
-      <c r="I99" s="2">
+      <c r="I99" s="3">
         <v>40940</v>
       </c>
       <c r="J99">
@@ -5345,6 +5644,9 @@
       </c>
       <c r="P99">
         <v>10.83571704927628</v>
+      </c>
+      <c r="Q99" s="2">
+        <v>40940</v>
       </c>
     </row>
     <row r="100">
@@ -5372,7 +5674,7 @@
       <c r="H100">
         <v>10.80314135500078</v>
       </c>
-      <c r="I100" s="2">
+      <c r="I100" s="3">
         <v>40969</v>
       </c>
       <c r="J100">
@@ -5395,6 +5697,9 @@
       </c>
       <c r="P100">
         <v>10.83637901941953</v>
+      </c>
+      <c r="Q100" s="2">
+        <v>40969</v>
       </c>
     </row>
     <row r="101">
@@ -5422,7 +5727,7 @@
       <c r="H101">
         <v>10.80314135500078</v>
       </c>
-      <c r="I101" s="2">
+      <c r="I101" s="3">
         <v>41000</v>
       </c>
       <c r="J101">
@@ -5445,6 +5750,9 @@
       </c>
       <c r="P101">
         <v>10.83447078041192</v>
+      </c>
+      <c r="Q101" s="2">
+        <v>41000</v>
       </c>
     </row>
     <row r="102">
@@ -5472,7 +5780,7 @@
       <c r="H102">
         <v>10.80314135500078</v>
       </c>
-      <c r="I102" s="2">
+      <c r="I102" s="3">
         <v>41030</v>
       </c>
       <c r="J102">
@@ -5495,6 +5803,9 @@
       </c>
       <c r="P102">
         <v>10.82999233225346</v>
+      </c>
+      <c r="Q102" s="2">
+        <v>41030</v>
       </c>
     </row>
     <row r="103">
@@ -5522,7 +5833,7 @@
       <c r="H103">
         <v>10.80314135500078</v>
       </c>
-      <c r="I103" s="2">
+      <c r="I103" s="3">
         <v>41061</v>
       </c>
       <c r="J103">
@@ -5545,6 +5856,9 @@
       </c>
       <c r="P103">
         <v>10.82294367494414</v>
+      </c>
+      <c r="Q103" s="2">
+        <v>41061</v>
       </c>
     </row>
     <row r="104">
@@ -5572,7 +5886,7 @@
       <c r="H104">
         <v>10.80314135500078</v>
       </c>
-      <c r="I104" s="2">
+      <c r="I104" s="3">
         <v>41091</v>
       </c>
       <c r="J104">
@@ -5595,6 +5909,9 @@
       </c>
       <c r="P104">
         <v>10.81332480848397</v>
+      </c>
+      <c r="Q104" s="2">
+        <v>41091</v>
       </c>
     </row>
     <row r="105">
@@ -5622,7 +5939,7 @@
       <c r="H105">
         <v>10.80314135500078</v>
       </c>
-      <c r="I105" s="2">
+      <c r="I105" s="3">
         <v>41122</v>
       </c>
       <c r="J105">
@@ -5645,6 +5962,9 @@
       </c>
       <c r="P105">
         <v>10.80113573287293</v>
+      </c>
+      <c r="Q105" s="2">
+        <v>41122</v>
       </c>
     </row>
     <row r="106">
@@ -5672,7 +5992,7 @@
       <c r="H106">
         <v>10.80314135500078</v>
       </c>
-      <c r="I106" s="2">
+      <c r="I106" s="3">
         <v>41153</v>
       </c>
       <c r="J106">
@@ -5695,6 +6015,9 @@
       </c>
       <c r="P106">
         <v>10.78637644811104</v>
+      </c>
+      <c r="Q106" s="2">
+        <v>41153</v>
       </c>
     </row>
     <row r="107">
@@ -5722,7 +6045,7 @@
       <c r="H107">
         <v>10.80314135500078</v>
       </c>
-      <c r="I107" s="2">
+      <c r="I107" s="3">
         <v>41183</v>
       </c>
       <c r="J107">
@@ -5745,6 +6068,9 @@
       </c>
       <c r="P107">
         <v>10.7690469541983</v>
+      </c>
+      <c r="Q107" s="2">
+        <v>41183</v>
       </c>
     </row>
     <row r="108">
@@ -5772,7 +6098,7 @@
       <c r="H108">
         <v>10.80314135500078</v>
       </c>
-      <c r="I108" s="2">
+      <c r="I108" s="3">
         <v>41214</v>
       </c>
       <c r="J108">
@@ -5795,6 +6121,9 @@
       </c>
       <c r="P108">
         <v>10.74914725113469</v>
+      </c>
+      <c r="Q108" s="2">
+        <v>41214</v>
       </c>
     </row>
     <row r="109">
@@ -5822,7 +6151,7 @@
       <c r="H109">
         <v>10.80314135500078</v>
       </c>
-      <c r="I109" s="2">
+      <c r="I109" s="3">
         <v>41244</v>
       </c>
       <c r="J109">
@@ -5845,6 +6174,9 @@
       </c>
       <c r="P109">
         <v>10.72667733892023</v>
+      </c>
+      <c r="Q109" s="2">
+        <v>41244</v>
       </c>
     </row>
     <row r="110">
@@ -5872,7 +6204,7 @@
       <c r="H110">
         <v>10.61973476112343</v>
       </c>
-      <c r="I110" s="2">
+      <c r="I110" s="3">
         <v>41275</v>
       </c>
       <c r="J110">
@@ -5895,6 +6227,9 @@
       </c>
       <c r="P110">
         <v>10.70163721755491</v>
+      </c>
+      <c r="Q110" s="2">
+        <v>41275</v>
       </c>
     </row>
     <row r="111">
@@ -5922,7 +6257,7 @@
       <c r="H111">
         <v>10.61973476112343</v>
       </c>
-      <c r="I111" s="2">
+      <c r="I111" s="3">
         <v>41306</v>
       </c>
       <c r="J111">
@@ -5945,6 +6280,9 @@
       </c>
       <c r="P111">
         <v>10.67893911903202</v>
+      </c>
+      <c r="Q111" s="2">
+        <v>41306</v>
       </c>
     </row>
     <row r="112">
@@ -5972,7 +6310,7 @@
       <c r="H112">
         <v>10.61973476112343</v>
       </c>
-      <c r="I112" s="2">
+      <c r="I112" s="3">
         <v>41334</v>
       </c>
       <c r="J112">
@@ -5995,6 +6333,9 @@
       </c>
       <c r="P112">
         <v>10.65858304335154</v>
+      </c>
+      <c r="Q112" s="2">
+        <v>41334</v>
       </c>
     </row>
     <row r="113">
@@ -6022,7 +6363,7 @@
       <c r="H113">
         <v>10.61973476112343</v>
       </c>
-      <c r="I113" s="2">
+      <c r="I113" s="3">
         <v>41365</v>
       </c>
       <c r="J113">
@@ -6045,6 +6386,9 @@
       </c>
       <c r="P113">
         <v>10.64056899051349</v>
+      </c>
+      <c r="Q113" s="2">
+        <v>41365</v>
       </c>
     </row>
     <row r="114">
@@ -6072,7 +6416,7 @@
       <c r="H114">
         <v>10.61973476112343</v>
       </c>
-      <c r="I114" s="2">
+      <c r="I114" s="3">
         <v>41395</v>
       </c>
       <c r="J114">
@@ -6095,6 +6439,9 @@
       </c>
       <c r="P114">
         <v>10.62489696051786</v>
+      </c>
+      <c r="Q114" s="2">
+        <v>41395</v>
       </c>
     </row>
     <row r="115">
@@ -6122,7 +6469,7 @@
       <c r="H115">
         <v>10.61973476112343</v>
       </c>
-      <c r="I115" s="2">
+      <c r="I115" s="3">
         <v>41426</v>
       </c>
       <c r="J115">
@@ -6145,6 +6492,9 @@
       </c>
       <c r="P115">
         <v>10.61156695336465</v>
+      </c>
+      <c r="Q115" s="2">
+        <v>41426</v>
       </c>
     </row>
     <row r="116">
@@ -6172,7 +6522,7 @@
       <c r="H116">
         <v>10.61973476112343</v>
       </c>
-      <c r="I116" s="2">
+      <c r="I116" s="3">
         <v>41456</v>
       </c>
       <c r="J116">
@@ -6195,6 +6545,9 @@
       </c>
       <c r="P116">
         <v>10.60057896905385</v>
+      </c>
+      <c r="Q116" s="2">
+        <v>41456</v>
       </c>
     </row>
     <row r="117">
@@ -6222,7 +6575,7 @@
       <c r="H117">
         <v>10.61973476112343</v>
       </c>
-      <c r="I117" s="2">
+      <c r="I117" s="3">
         <v>41487</v>
       </c>
       <c r="J117">
@@ -6245,6 +6598,9 @@
       </c>
       <c r="P117">
         <v>10.59193300758549</v>
+      </c>
+      <c r="Q117" s="2">
+        <v>41487</v>
       </c>
     </row>
     <row r="118">
@@ -6272,7 +6628,7 @@
       <c r="H118">
         <v>10.61973476112343</v>
       </c>
-      <c r="I118" s="2">
+      <c r="I118" s="3">
         <v>41518</v>
       </c>
       <c r="J118">
@@ -6295,6 +6651,9 @@
       </c>
       <c r="P118">
         <v>10.58562906895954</v>
+      </c>
+      <c r="Q118" s="2">
+        <v>41518</v>
       </c>
     </row>
     <row r="119">
@@ -6322,7 +6681,7 @@
       <c r="H119">
         <v>10.61973476112343</v>
       </c>
-      <c r="I119" s="2">
+      <c r="I119" s="3">
         <v>41548</v>
       </c>
       <c r="J119">
@@ -6345,6 +6704,9 @@
       </c>
       <c r="P119">
         <v>10.58166715317601</v>
+      </c>
+      <c r="Q119" s="2">
+        <v>41548</v>
       </c>
     </row>
     <row r="120">
@@ -6372,7 +6734,7 @@
       <c r="H120">
         <v>10.61973476112343</v>
       </c>
-      <c r="I120" s="2">
+      <c r="I120" s="3">
         <v>41579</v>
       </c>
       <c r="J120">
@@ -6395,6 +6757,9 @@
       </c>
       <c r="P120">
         <v>10.58004726023491</v>
+      </c>
+      <c r="Q120" s="2">
+        <v>41579</v>
       </c>
     </row>
     <row r="121">
@@ -6422,7 +6787,7 @@
       <c r="H121">
         <v>10.61973476112343</v>
       </c>
-      <c r="I121" s="2">
+      <c r="I121" s="3">
         <v>41609</v>
       </c>
       <c r="J121">
@@ -6445,6 +6810,9 @@
       </c>
       <c r="P121">
         <v>10.58076939013623</v>
+      </c>
+      <c r="Q121" s="2">
+        <v>41609</v>
       </c>
     </row>
     <row r="122">
@@ -6472,7 +6840,7 @@
       <c r="H122">
         <v>10.55900479998103</v>
       </c>
-      <c r="I122" s="2">
+      <c r="I122" s="3">
         <v>41640</v>
       </c>
       <c r="J122">
@@ -6495,6 +6863,9 @@
       </c>
       <c r="P122">
         <v>10.58383354287996</v>
+      </c>
+      <c r="Q122" s="2">
+        <v>41640</v>
       </c>
     </row>
     <row r="123">
@@ -6522,7 +6893,7 @@
       <c r="H123">
         <v>10.55900479998103</v>
       </c>
-      <c r="I123" s="2">
+      <c r="I123" s="3">
         <v>41671</v>
       </c>
       <c r="J123">
@@ -6545,6 +6916,9 @@
       </c>
       <c r="P123">
         <v>10.58514881801574</v>
+      </c>
+      <c r="Q123" s="2">
+        <v>41671</v>
       </c>
     </row>
     <row r="124">
@@ -6572,7 +6946,7 @@
       <c r="H124">
         <v>10.55900479998103</v>
       </c>
-      <c r="I124" s="2">
+      <c r="I124" s="3">
         <v>41699</v>
       </c>
       <c r="J124">
@@ -6595,6 +6969,9 @@
       </c>
       <c r="P124">
         <v>10.58471521554358</v>
+      </c>
+      <c r="Q124" s="2">
+        <v>41699</v>
       </c>
     </row>
     <row r="125">
@@ -6622,7 +6999,7 @@
       <c r="H125">
         <v>10.55900479998103</v>
       </c>
-      <c r="I125" s="2">
+      <c r="I125" s="3">
         <v>41730</v>
       </c>
       <c r="J125">
@@ -6645,6 +7022,9 @@
       </c>
       <c r="P125">
         <v>10.58253273546345</v>
+      </c>
+      <c r="Q125" s="2">
+        <v>41730</v>
       </c>
     </row>
     <row r="126">
@@ -6672,7 +7052,7 @@
       <c r="H126">
         <v>10.55900479998103</v>
       </c>
-      <c r="I126" s="2">
+      <c r="I126" s="3">
         <v>41760</v>
       </c>
       <c r="J126">
@@ -6695,6 +7075,9 @@
       </c>
       <c r="P126">
         <v>10.57860137777538</v>
+      </c>
+      <c r="Q126" s="2">
+        <v>41760</v>
       </c>
     </row>
     <row r="127">
@@ -6722,7 +7105,7 @@
       <c r="H127">
         <v>10.55900479998103</v>
       </c>
-      <c r="I127" s="2">
+      <c r="I127" s="3">
         <v>41791</v>
       </c>
       <c r="J127">
@@ -6745,6 +7128,9 @@
       </c>
       <c r="P127">
         <v>10.57292114247936</v>
+      </c>
+      <c r="Q127" s="2">
+        <v>41791</v>
       </c>
     </row>
     <row r="128">
@@ -6772,7 +7158,7 @@
       <c r="H128">
         <v>10.55900479998103</v>
       </c>
-      <c r="I128" s="2">
+      <c r="I128" s="3">
         <v>41821</v>
       </c>
       <c r="J128">
@@ -6795,6 +7181,9 @@
       </c>
       <c r="P128">
         <v>10.56549202957538</v>
+      </c>
+      <c r="Q128" s="2">
+        <v>41821</v>
       </c>
     </row>
     <row r="129">
@@ -6822,7 +7211,7 @@
       <c r="H129">
         <v>10.55900479998103</v>
       </c>
-      <c r="I129" s="2">
+      <c r="I129" s="3">
         <v>41852</v>
       </c>
       <c r="J129">
@@ -6845,6 +7234,9 @@
       </c>
       <c r="P129">
         <v>10.55631403906345</v>
+      </c>
+      <c r="Q129" s="2">
+        <v>41852</v>
       </c>
     </row>
     <row r="130">
@@ -6872,7 +7264,7 @@
       <c r="H130">
         <v>10.55900479998103</v>
       </c>
-      <c r="I130" s="2">
+      <c r="I130" s="3">
         <v>41883</v>
       </c>
       <c r="J130">
@@ -6895,6 +7287,9 @@
       </c>
       <c r="P130">
         <v>10.54538717094356</v>
+      </c>
+      <c r="Q130" s="2">
+        <v>41883</v>
       </c>
     </row>
     <row r="131">
@@ -6922,7 +7317,7 @@
       <c r="H131">
         <v>10.55900479998103</v>
       </c>
-      <c r="I131" s="2">
+      <c r="I131" s="3">
         <v>41913</v>
       </c>
       <c r="J131">
@@ -6945,6 +7340,9 @@
       </c>
       <c r="P131">
         <v>10.53271142521573</v>
+      </c>
+      <c r="Q131" s="2">
+        <v>41913</v>
       </c>
     </row>
     <row r="132">
@@ -6972,7 +7370,7 @@
       <c r="H132">
         <v>10.55900479998103</v>
       </c>
-      <c r="I132" s="2">
+      <c r="I132" s="3">
         <v>41944</v>
       </c>
       <c r="J132">
@@ -6995,6 +7393,9 @@
       </c>
       <c r="P132">
         <v>10.51828680187994</v>
+      </c>
+      <c r="Q132" s="2">
+        <v>41944</v>
       </c>
     </row>
     <row r="133">
@@ -7022,7 +7423,7 @@
       <c r="H133">
         <v>10.55900479998103</v>
       </c>
-      <c r="I133" s="2">
+      <c r="I133" s="3">
         <v>41974</v>
       </c>
       <c r="J133">
@@ -7045,6 +7446,9 @@
       </c>
       <c r="P133">
         <v>10.5021133009362</v>
+      </c>
+      <c r="Q133" s="2">
+        <v>41974</v>
       </c>
     </row>
     <row r="134">
@@ -7072,7 +7476,7 @@
       <c r="H134">
         <v>10.46326509881654</v>
       </c>
-      <c r="I134" s="2">
+      <c r="I134" s="3">
         <v>42005</v>
       </c>
       <c r="J134">
@@ -7095,6 +7499,9 @@
       </c>
       <c r="P134">
         <v>10.48419092238451</v>
+      </c>
+      <c r="Q134" s="2">
+        <v>42005</v>
       </c>
     </row>
     <row r="135">
@@ -7122,7 +7529,7 @@
       <c r="H135">
         <v>10.46326509881654</v>
       </c>
-      <c r="I135" s="2">
+      <c r="I135" s="3">
         <v>42036</v>
       </c>
       <c r="J135">
@@ -7145,6 +7552,9 @@
       </c>
       <c r="P135">
         <v>10.46952647076147</v>
+      </c>
+      <c r="Q135" s="2">
+        <v>42036</v>
       </c>
     </row>
     <row r="136">
@@ -7172,7 +7582,7 @@
       <c r="H136">
         <v>10.46326509881654</v>
       </c>
-      <c r="I136" s="2">
+      <c r="I136" s="3">
         <v>42064</v>
       </c>
       <c r="J136">
@@ -7195,6 +7605,9 @@
       </c>
       <c r="P136">
         <v>10.45811994606709</v>
+      </c>
+      <c r="Q136" s="2">
+        <v>42064</v>
       </c>
     </row>
     <row r="137">
@@ -7222,7 +7635,7 @@
       <c r="H137">
         <v>10.46326509881654</v>
       </c>
-      <c r="I137" s="2">
+      <c r="I137" s="3">
         <v>42095</v>
       </c>
       <c r="J137">
@@ -7245,6 +7658,9 @@
       </c>
       <c r="P137">
         <v>10.44997134830136</v>
+      </c>
+      <c r="Q137" s="2">
+        <v>42095</v>
       </c>
     </row>
     <row r="138">
@@ -7272,7 +7688,7 @@
       <c r="H138">
         <v>10.46326509881654</v>
       </c>
-      <c r="I138" s="2">
+      <c r="I138" s="3">
         <v>42125</v>
       </c>
       <c r="J138">
@@ -7295,6 +7711,9 @@
       </c>
       <c r="P138">
         <v>10.4450806774643</v>
+      </c>
+      <c r="Q138" s="2">
+        <v>42125</v>
       </c>
     </row>
     <row r="139">
@@ -7322,7 +7741,7 @@
       <c r="H139">
         <v>10.46326509881654</v>
       </c>
-      <c r="I139" s="2">
+      <c r="I139" s="3">
         <v>42156</v>
       </c>
       <c r="J139">
@@ -7345,6 +7764,9 @@
       </c>
       <c r="P139">
         <v>10.44344793355588</v>
+      </c>
+      <c r="Q139" s="2">
+        <v>42156</v>
       </c>
     </row>
     <row r="140">
@@ -7372,7 +7794,7 @@
       <c r="H140">
         <v>10.46326509881654</v>
       </c>
-      <c r="I140" s="2">
+      <c r="I140" s="3">
         <v>42186</v>
       </c>
       <c r="J140">
@@ -7395,6 +7817,9 @@
       </c>
       <c r="P140">
         <v>10.44507311657613</v>
+      </c>
+      <c r="Q140" s="2">
+        <v>42186</v>
       </c>
     </row>
     <row r="141">
@@ -7422,7 +7847,7 @@
       <c r="H141">
         <v>10.46326509881654</v>
       </c>
-      <c r="I141" s="2">
+      <c r="I141" s="3">
         <v>42217</v>
       </c>
       <c r="J141">
@@ -7445,6 +7870,9 @@
       </c>
       <c r="P141">
         <v>10.44995622652503</v>
+      </c>
+      <c r="Q141" s="2">
+        <v>42217</v>
       </c>
     </row>
     <row r="142">
@@ -7472,7 +7900,7 @@
       <c r="H142">
         <v>10.46326509881654</v>
       </c>
-      <c r="I142" s="2">
+      <c r="I142" s="3">
         <v>42248</v>
       </c>
       <c r="J142">
@@ -7495,6 +7923,9 @@
       </c>
       <c r="P142">
         <v>10.45809726340258</v>
+      </c>
+      <c r="Q142" s="2">
+        <v>42248</v>
       </c>
     </row>
     <row r="143">
@@ -7522,7 +7953,7 @@
       <c r="H143">
         <v>10.46326509881654</v>
       </c>
-      <c r="I143" s="2">
+      <c r="I143" s="3">
         <v>42278</v>
       </c>
       <c r="J143">
@@ -7545,6 +7976,9 @@
       </c>
       <c r="P143">
         <v>10.46949622720879</v>
+      </c>
+      <c r="Q143" s="2">
+        <v>42278</v>
       </c>
     </row>
     <row r="144">
@@ -7572,7 +8006,7 @@
       <c r="H144">
         <v>10.46326509881654</v>
       </c>
-      <c r="I144" s="2">
+      <c r="I144" s="3">
         <v>42309</v>
       </c>
       <c r="J144">
@@ -7595,6 +8029,9 @@
       </c>
       <c r="P144">
         <v>10.48415311794366</v>
+      </c>
+      <c r="Q144" s="2">
+        <v>42309</v>
       </c>
     </row>
     <row r="145">
@@ -7622,7 +8059,7 @@
       <c r="H145">
         <v>10.46326509881654</v>
       </c>
-      <c r="I145" s="2">
+      <c r="I145" s="3">
         <v>42339</v>
       </c>
       <c r="J145">
@@ -7645,6 +8082,9 @@
       </c>
       <c r="P145">
         <v>10.50206793560717</v>
+      </c>
+      <c r="Q145" s="2">
+        <v>42339</v>
       </c>
     </row>
     <row r="146">
@@ -7672,7 +8112,7 @@
       <c r="H146">
         <v>10.58181100249745</v>
       </c>
-      <c r="I146" s="2">
+      <c r="I146" s="3">
         <v>42370</v>
       </c>
       <c r="J146">
@@ -7695,6 +8135,9 @@
       </c>
       <c r="P146">
         <v>10.52324068019935</v>
+      </c>
+      <c r="Q146" s="2">
+        <v>42370</v>
       </c>
     </row>
     <row r="147">
@@ -7722,7 +8165,7 @@
       <c r="H147">
         <v>10.58181100249745</v>
       </c>
-      <c r="I147" s="2">
+      <c r="I147" s="3">
         <v>42401</v>
       </c>
       <c r="J147">
@@ -7745,6 +8188,9 @@
       </c>
       <c r="P147">
         <v>10.5419849028492</v>
+      </c>
+      <c r="Q147" s="2">
+        <v>42401</v>
       </c>
     </row>
     <row r="148">
@@ -7772,7 +8218,7 @@
       <c r="H148">
         <v>10.58181100249745</v>
       </c>
-      <c r="I148" s="2">
+      <c r="I148" s="3">
         <v>42430</v>
       </c>
       <c r="J148">
@@ -7795,6 +8241,9 @@
       </c>
       <c r="P148">
         <v>10.55830060355671</v>
+      </c>
+      <c r="Q148" s="2">
+        <v>42430</v>
       </c>
     </row>
     <row r="149">
@@ -7822,7 +8271,7 @@
       <c r="H149">
         <v>10.58181100249745</v>
       </c>
-      <c r="I149" s="2">
+      <c r="I149" s="3">
         <v>42461</v>
       </c>
       <c r="J149">
@@ -7845,6 +8294,9 @@
       </c>
       <c r="P149">
         <v>10.57218778232189</v>
+      </c>
+      <c r="Q149" s="2">
+        <v>42461</v>
       </c>
     </row>
     <row r="150">
@@ -7872,7 +8324,7 @@
       <c r="H150">
         <v>10.58181100249745</v>
       </c>
-      <c r="I150" s="2">
+      <c r="I150" s="3">
         <v>42491</v>
       </c>
       <c r="J150">
@@ -7895,6 +8347,9 @@
       </c>
       <c r="P150">
         <v>10.58364643914473</v>
+      </c>
+      <c r="Q150" s="2">
+        <v>42491</v>
       </c>
     </row>
     <row r="151">
@@ -7922,7 +8377,7 @@
       <c r="H151">
         <v>10.58181100249745</v>
       </c>
-      <c r="I151" s="2">
+      <c r="I151" s="3">
         <v>42522</v>
       </c>
       <c r="J151">
@@ -7945,6 +8400,9 @@
       </c>
       <c r="P151">
         <v>10.59267657402525</v>
+      </c>
+      <c r="Q151" s="2">
+        <v>42522</v>
       </c>
     </row>
     <row r="152">
@@ -7972,7 +8430,7 @@
       <c r="H152">
         <v>10.58181100249745</v>
       </c>
-      <c r="I152" s="2">
+      <c r="I152" s="3">
         <v>42552</v>
       </c>
       <c r="J152">
@@ -7995,6 +8453,9 @@
       </c>
       <c r="P152">
         <v>10.59927818696343</v>
+      </c>
+      <c r="Q152" s="2">
+        <v>42552</v>
       </c>
     </row>
     <row r="153">
@@ -8022,7 +8483,7 @@
       <c r="H153">
         <v>10.58181100249745</v>
       </c>
-      <c r="I153" s="2">
+      <c r="I153" s="3">
         <v>42583</v>
       </c>
       <c r="J153">
@@ -8045,6 +8506,9 @@
       </c>
       <c r="P153">
         <v>10.60345127795928</v>
+      </c>
+      <c r="Q153" s="2">
+        <v>42583</v>
       </c>
     </row>
     <row r="154">
@@ -8072,7 +8536,7 @@
       <c r="H154">
         <v>10.58181100249745</v>
       </c>
-      <c r="I154" s="2">
+      <c r="I154" s="3">
         <v>42614</v>
       </c>
       <c r="J154">
@@ -8095,6 +8559,9 @@
       </c>
       <c r="P154">
         <v>10.60519584701279</v>
+      </c>
+      <c r="Q154" s="2">
+        <v>42614</v>
       </c>
     </row>
     <row r="155">
@@ -8122,7 +8589,7 @@
       <c r="H155">
         <v>10.58181100249745</v>
       </c>
-      <c r="I155" s="2">
+      <c r="I155" s="3">
         <v>42644</v>
       </c>
       <c r="J155">
@@ -8145,6 +8612,9 @@
       </c>
       <c r="P155">
         <v>10.60451189412398</v>
+      </c>
+      <c r="Q155" s="2">
+        <v>42644</v>
       </c>
     </row>
     <row r="156">
@@ -8172,7 +8642,7 @@
       <c r="H156">
         <v>10.58181100249745</v>
       </c>
-      <c r="I156" s="2">
+      <c r="I156" s="3">
         <v>42675</v>
       </c>
       <c r="J156">
@@ -8195,6 +8665,9 @@
       </c>
       <c r="P156">
         <v>10.60139941929283</v>
+      </c>
+      <c r="Q156" s="2">
+        <v>42675</v>
       </c>
     </row>
     <row r="157">
@@ -8222,7 +8695,7 @@
       <c r="H157">
         <v>10.58181100249745</v>
       </c>
-      <c r="I157" s="2">
+      <c r="I157" s="3">
         <v>42705</v>
       </c>
       <c r="J157">
@@ -8245,6 +8718,9 @@
       </c>
       <c r="P157">
         <v>10.59585842251934</v>
+      </c>
+      <c r="Q157" s="2">
+        <v>42705</v>
       </c>
     </row>
     <row r="158">
@@ -8272,7 +8748,7 @@
       <c r="H158">
         <v>10.56883430750379</v>
       </c>
-      <c r="I158" s="2">
+      <c r="I158" s="3">
         <v>42736</v>
       </c>
       <c r="J158">
@@ -8295,6 +8771,9 @@
       </c>
       <c r="P158">
         <v>10.58788890380353</v>
+      </c>
+      <c r="Q158" s="2">
+        <v>42736</v>
       </c>
     </row>
     <row r="159">
@@ -8322,7 +8801,7 @@
       <c r="H159">
         <v>10.56883430750379</v>
       </c>
-      <c r="I159" s="2">
+      <c r="I159" s="3">
         <v>42767</v>
       </c>
       <c r="J159">
@@ -8345,6 +8824,9 @@
       </c>
       <c r="P159">
         <v>10.58095901124032</v>
+      </c>
+      <c r="Q159" s="2">
+        <v>42767</v>
       </c>
     </row>
     <row r="160">
@@ -8372,7 +8854,7 @@
       <c r="H160">
         <v>10.56883430750379</v>
       </c>
-      <c r="I160" s="2">
+      <c r="I160" s="3">
         <v>42795</v>
       </c>
       <c r="J160">
@@ -8395,6 +8877,9 @@
       </c>
       <c r="P160">
         <v>10.57506874482972</v>
+      </c>
+      <c r="Q160" s="2">
+        <v>42795</v>
       </c>
     </row>
     <row r="161">
@@ -8422,7 +8907,7 @@
       <c r="H161">
         <v>10.56883430750379</v>
       </c>
-      <c r="I161" s="2">
+      <c r="I161" s="3">
         <v>42826</v>
       </c>
       <c r="J161">
@@ -8445,6 +8930,9 @@
       </c>
       <c r="P161">
         <v>10.57021810457173</v>
+      </c>
+      <c r="Q161" s="2">
+        <v>42826</v>
       </c>
     </row>
     <row r="162">
@@ -8472,7 +8960,7 @@
       <c r="H162">
         <v>10.56883430750379</v>
       </c>
-      <c r="I162" s="2">
+      <c r="I162" s="3">
         <v>42856</v>
       </c>
       <c r="J162">
@@ -8495,6 +8983,9 @@
       </c>
       <c r="P162">
         <v>10.56640709046636</v>
+      </c>
+      <c r="Q162" s="2">
+        <v>42856</v>
       </c>
     </row>
     <row r="163">
@@ -8522,7 +9013,7 @@
       <c r="H163">
         <v>10.56883430750379</v>
       </c>
-      <c r="I163" s="2">
+      <c r="I163" s="3">
         <v>42887</v>
       </c>
       <c r="J163">
@@ -8545,6 +9036,9 @@
       </c>
       <c r="P163">
         <v>10.56363570251359</v>
+      </c>
+      <c r="Q163" s="2">
+        <v>42887</v>
       </c>
     </row>
     <row r="164">
@@ -8572,7 +9066,7 @@
       <c r="H164">
         <v>10.56883430750379</v>
       </c>
-      <c r="I164" s="2">
+      <c r="I164" s="3">
         <v>42917</v>
       </c>
       <c r="J164">
@@ -8595,6 +9089,9 @@
       </c>
       <c r="P164">
         <v>10.56190394071343</v>
+      </c>
+      <c r="Q164" s="2">
+        <v>42917</v>
       </c>
     </row>
     <row r="165">
@@ -8622,7 +9119,7 @@
       <c r="H165">
         <v>10.56883430750379</v>
       </c>
-      <c r="I165" s="2">
+      <c r="I165" s="3">
         <v>42948</v>
       </c>
       <c r="J165">
@@ -8645,6 +9142,9 @@
       </c>
       <c r="P165">
         <v>10.56121180506588</v>
+      </c>
+      <c r="Q165" s="2">
+        <v>42948</v>
       </c>
     </row>
     <row r="166">
@@ -8672,7 +9172,7 @@
       <c r="H166">
         <v>10.56883430750379</v>
       </c>
-      <c r="I166" s="2">
+      <c r="I166" s="3">
         <v>42979</v>
       </c>
       <c r="J166">
@@ -8695,6 +9195,9 @@
       </c>
       <c r="P166">
         <v>10.56155929557094</v>
+      </c>
+      <c r="Q166" s="2">
+        <v>42979</v>
       </c>
     </row>
     <row r="167">
@@ -8722,7 +9225,7 @@
       <c r="H167">
         <v>10.56883430750379</v>
       </c>
-      <c r="I167" s="2">
+      <c r="I167" s="3">
         <v>43009</v>
       </c>
       <c r="J167">
@@ -8745,6 +9248,9 @@
       </c>
       <c r="P167">
         <v>10.56294641222861</v>
+      </c>
+      <c r="Q167" s="2">
+        <v>43009</v>
       </c>
     </row>
     <row r="168">
@@ -8772,7 +9278,7 @@
       <c r="H168">
         <v>10.56883430750379</v>
       </c>
-      <c r="I168" s="2">
+      <c r="I168" s="3">
         <v>43040</v>
       </c>
       <c r="J168">
@@ -8795,6 +9301,9 @@
       </c>
       <c r="P168">
         <v>10.56537315503889</v>
+      </c>
+      <c r="Q168" s="2">
+        <v>43040</v>
       </c>
     </row>
     <row r="169">
@@ -8822,7 +9331,7 @@
       <c r="H169">
         <v>10.56883430750379</v>
       </c>
-      <c r="I169" s="2">
+      <c r="I169" s="3">
         <v>43070</v>
       </c>
       <c r="J169">
@@ -8845,6 +9354,9 @@
       </c>
       <c r="P169">
         <v>10.56883952400178</v>
+      </c>
+      <c r="Q169" s="2">
+        <v>43070</v>
       </c>
     </row>
     <row r="170">
@@ -8872,7 +9384,7 @@
       <c r="H170">
         <v>10.59288599033192</v>
       </c>
-      <c r="I170" s="2">
+      <c r="I170" s="3">
         <v>43101</v>
       </c>
       <c r="J170">
@@ -8895,6 +9407,9 @@
       </c>
       <c r="P170">
         <v>10.57334551911727</v>
+      </c>
+      <c r="Q170" s="2">
+        <v>43101</v>
       </c>
     </row>
     <row r="171">
@@ -8922,7 +9437,7 @@
       <c r="H171">
         <v>10.59288599033192</v>
       </c>
-      <c r="I171" s="2">
+      <c r="I171" s="3">
         <v>43132</v>
       </c>
       <c r="J171">
@@ -8945,6 +9460,9 @@
       </c>
       <c r="P171">
         <v>10.57763154911722</v>
+      </c>
+      <c r="Q171" s="2">
+        <v>43132</v>
       </c>
     </row>
     <row r="172">
@@ -8972,7 +9490,7 @@
       <c r="H172">
         <v>10.59288599033192</v>
       </c>
-      <c r="I172" s="2">
+      <c r="I172" s="3">
         <v>43160</v>
       </c>
       <c r="J172">
@@ -8995,6 +9513,9 @@
       </c>
       <c r="P172">
         <v>10.58169761400161</v>
+      </c>
+      <c r="Q172" s="2">
+        <v>43160</v>
       </c>
     </row>
     <row r="173">
@@ -9022,7 +9543,7 @@
       <c r="H173">
         <v>10.59288599033192</v>
       </c>
-      <c r="I173" s="2">
+      <c r="I173" s="3">
         <v>43191</v>
       </c>
       <c r="J173">
@@ -9045,6 +9566,9 @@
       </c>
       <c r="P173">
         <v>10.58554371377046</v>
+      </c>
+      <c r="Q173" s="2">
+        <v>43191</v>
       </c>
     </row>
     <row r="174">
@@ -9072,7 +9596,7 @@
       <c r="H174">
         <v>10.59288599033192</v>
       </c>
-      <c r="I174" s="2">
+      <c r="I174" s="3">
         <v>43221</v>
       </c>
       <c r="J174">
@@ -9095,6 +9619,9 @@
       </c>
       <c r="P174">
         <v>10.58916984842375</v>
+      </c>
+      <c r="Q174" s="2">
+        <v>43221</v>
       </c>
     </row>
     <row r="175">
@@ -9122,7 +9649,7 @@
       <c r="H175">
         <v>10.59288599033192</v>
       </c>
-      <c r="I175" s="2">
+      <c r="I175" s="3">
         <v>43252</v>
       </c>
       <c r="J175">
@@ -9145,6 +9672,9 @@
       </c>
       <c r="P175">
         <v>10.59257601796148</v>
+      </c>
+      <c r="Q175" s="2">
+        <v>43252</v>
       </c>
     </row>
     <row r="176">
@@ -9172,7 +9702,7 @@
       <c r="H176">
         <v>10.59288599033192</v>
       </c>
-      <c r="I176" s="2">
+      <c r="I176" s="3">
         <v>43282</v>
       </c>
       <c r="J176">
@@ -9195,6 +9725,9 @@
       </c>
       <c r="P176">
         <v>10.59576222238367</v>
+      </c>
+      <c r="Q176" s="2">
+        <v>43282</v>
       </c>
     </row>
     <row r="177">
@@ -9222,7 +9755,7 @@
       <c r="H177">
         <v>10.59288599033192</v>
       </c>
-      <c r="I177" s="2">
+      <c r="I177" s="3">
         <v>43313</v>
       </c>
       <c r="J177">
@@ -9245,6 +9778,9 @@
       </c>
       <c r="P177">
         <v>10.59872846169031</v>
+      </c>
+      <c r="Q177" s="2">
+        <v>43313</v>
       </c>
     </row>
     <row r="178">
@@ -9272,7 +9808,7 @@
       <c r="H178">
         <v>10.59288599033192</v>
       </c>
-      <c r="I178" s="2">
+      <c r="I178" s="3">
         <v>43344</v>
       </c>
       <c r="J178">
@@ -9295,6 +9831,9 @@
       </c>
       <c r="P178">
         <v>10.6014747358814</v>
+      </c>
+      <c r="Q178" s="2">
+        <v>43344</v>
       </c>
     </row>
     <row r="179">
@@ -9322,7 +9861,7 @@
       <c r="H179">
         <v>10.59288599033192</v>
       </c>
-      <c r="I179" s="2">
+      <c r="I179" s="3">
         <v>43374</v>
       </c>
       <c r="J179">
@@ -9345,6 +9884,9 @@
       </c>
       <c r="P179">
         <v>10.60400104495693</v>
+      </c>
+      <c r="Q179" s="2">
+        <v>43374</v>
       </c>
     </row>
     <row r="180">
@@ -9372,7 +9914,7 @@
       <c r="H180">
         <v>10.59288599033192</v>
       </c>
-      <c r="I180" s="2">
+      <c r="I180" s="3">
         <v>43405</v>
       </c>
       <c r="J180">
@@ -9395,6 +9937,9 @@
       </c>
       <c r="P180">
         <v>10.60630738891691</v>
+      </c>
+      <c r="Q180" s="2">
+        <v>43405</v>
       </c>
     </row>
     <row r="181">
@@ -9422,7 +9967,7 @@
       <c r="H181">
         <v>10.59288599033192</v>
       </c>
-      <c r="I181" s="2">
+      <c r="I181" s="3">
         <v>43435</v>
       </c>
       <c r="J181">
@@ -9445,6 +9990,9 @@
       </c>
       <c r="P181">
         <v>10.60839376776134</v>
+      </c>
+      <c r="Q181" s="2">
+        <v>43435</v>
       </c>
     </row>
     <row r="182">
@@ -9472,7 +10020,7 @@
       <c r="H182">
         <v>10.61024092265171</v>
       </c>
-      <c r="I182" s="2">
+      <c r="I182" s="3">
         <v>43466</v>
       </c>
       <c r="J182">
@@ -9495,6 +10043,9 @@
       </c>
       <c r="P182">
         <v>10.61026018149022</v>
+      </c>
+      <c r="Q182" s="2">
+        <v>43466</v>
       </c>
     </row>
     <row r="183">
@@ -9522,7 +10073,7 @@
       <c r="H183">
         <v>10.61024092265171</v>
       </c>
-      <c r="I183" s="2">
+      <c r="I183" s="3">
         <v>43497</v>
       </c>
       <c r="J183">
@@ -9545,6 +10096,9 @@
       </c>
       <c r="P183">
         <v>10.61169507629543</v>
+      </c>
+      <c r="Q183" s="2">
+        <v>43497</v>
       </c>
     </row>
     <row r="184">
@@ -9572,7 +10126,7 @@
       <c r="H184">
         <v>10.61024092265171</v>
       </c>
-      <c r="I184" s="2">
+      <c r="I184" s="3">
         <v>43525</v>
       </c>
       <c r="J184">
@@ -9595,6 +10149,9 @@
       </c>
       <c r="P184">
         <v>10.61269845217697</v>
+      </c>
+      <c r="Q184" s="2">
+        <v>43525</v>
       </c>
     </row>
     <row r="185">
@@ -9622,7 +10179,7 @@
       <c r="H185">
         <v>10.61024092265171</v>
       </c>
-      <c r="I185" s="2">
+      <c r="I185" s="3">
         <v>43556</v>
       </c>
       <c r="J185">
@@ -9645,6 +10202,9 @@
       </c>
       <c r="P185">
         <v>10.61327030913485</v>
+      </c>
+      <c r="Q185" s="2">
+        <v>43556</v>
       </c>
     </row>
     <row r="186">
@@ -9672,7 +10232,7 @@
       <c r="H186">
         <v>10.61024092265171</v>
       </c>
-      <c r="I186" s="2">
+      <c r="I186" s="3">
         <v>43586</v>
       </c>
       <c r="J186">
@@ -9695,6 +10255,9 @@
       </c>
       <c r="P186">
         <v>10.61341064716906</v>
+      </c>
+      <c r="Q186" s="2">
+        <v>43586</v>
       </c>
     </row>
     <row r="187">
@@ -9722,7 +10285,7 @@
       <c r="H187">
         <v>10.61024092265171</v>
       </c>
-      <c r="I187" s="2">
+      <c r="I187" s="3">
         <v>43617</v>
       </c>
       <c r="J187">
@@ -9745,6 +10308,9 @@
       </c>
       <c r="P187">
         <v>10.61311946627961</v>
+      </c>
+      <c r="Q187" s="2">
+        <v>43617</v>
       </c>
     </row>
     <row r="188">
@@ -9772,7 +10338,7 @@
       <c r="H188">
         <v>10.61024092265171</v>
       </c>
-      <c r="I188" s="2">
+      <c r="I188" s="3">
         <v>43647</v>
       </c>
       <c r="J188">
@@ -9795,6 +10361,9 @@
       </c>
       <c r="P188">
         <v>10.61239676646648</v>
+      </c>
+      <c r="Q188" s="2">
+        <v>43647</v>
       </c>
     </row>
     <row r="189">
@@ -9822,7 +10391,7 @@
       <c r="H189">
         <v>10.61024092265171</v>
       </c>
-      <c r="I189" s="2">
+      <c r="I189" s="3">
         <v>43678</v>
       </c>
       <c r="J189">
@@ -9845,6 +10414,9 @@
       </c>
       <c r="P189">
         <v>10.61124254772969</v>
+      </c>
+      <c r="Q189" s="2">
+        <v>43678</v>
       </c>
     </row>
     <row r="190">
@@ -9872,7 +10444,7 @@
       <c r="H190">
         <v>10.61024092265171</v>
       </c>
-      <c r="I190" s="2">
+      <c r="I190" s="3">
         <v>43709</v>
       </c>
       <c r="J190">
@@ -9895,6 +10467,9 @@
       </c>
       <c r="P190">
         <v>10.60965681006924</v>
+      </c>
+      <c r="Q190" s="2">
+        <v>43709</v>
       </c>
     </row>
     <row r="191">
@@ -9922,7 +10497,7 @@
       <c r="H191">
         <v>10.61024092265171</v>
       </c>
-      <c r="I191" s="2">
+      <c r="I191" s="3">
         <v>43739</v>
       </c>
       <c r="J191">
@@ -9945,6 +10520,9 @@
       </c>
       <c r="P191">
         <v>10.60763955348511</v>
+      </c>
+      <c r="Q191" s="2">
+        <v>43739</v>
       </c>
     </row>
     <row r="192">
@@ -9972,7 +10550,7 @@
       <c r="H192">
         <v>10.61024092265171</v>
       </c>
-      <c r="I192" s="2">
+      <c r="I192" s="3">
         <v>43770</v>
       </c>
       <c r="J192">
@@ -9995,6 +10573,9 @@
       </c>
       <c r="P192">
         <v>10.60519077797732</v>
+      </c>
+      <c r="Q192" s="2">
+        <v>43770</v>
       </c>
     </row>
     <row r="193">
@@ -10022,7 +10603,7 @@
       <c r="H193">
         <v>10.61024092265171</v>
       </c>
-      <c r="I193" s="2">
+      <c r="I193" s="3">
         <v>43800</v>
       </c>
       <c r="J193">
@@ -10045,6 +10626,9 @@
       </c>
       <c r="P193">
         <v>10.60231048354587</v>
+      </c>
+      <c r="Q193" s="2">
+        <v>43800</v>
       </c>
     </row>
     <row r="194">
@@ -10072,7 +10656,7 @@
       <c r="H194">
         <v>10.60062341770666</v>
       </c>
-      <c r="I194" s="2">
+      <c r="I194" s="3">
         <v>43831</v>
       </c>
       <c r="J194">
@@ -10095,6 +10679,9 @@
       </c>
       <c r="P194">
         <v>10.59899867019075</v>
+      </c>
+      <c r="Q194" s="2">
+        <v>43831</v>
       </c>
     </row>
     <row r="195">
@@ -10122,7 +10709,7 @@
       <c r="H195">
         <v>10.60062341770666</v>
       </c>
-      <c r="I195" s="2">
+      <c r="I195" s="3">
         <v>43862</v>
       </c>
       <c r="J195">
@@ -10145,6 +10732,9 @@
       </c>
       <c r="P195">
         <v>10.59651929268047</v>
+      </c>
+      <c r="Q195" s="2">
+        <v>43862</v>
       </c>
     </row>
     <row r="196">
@@ -10172,7 +10762,7 @@
       <c r="H196">
         <v>10.60062341770666</v>
       </c>
-      <c r="I196" s="2">
+      <c r="I196" s="3">
         <v>43891</v>
       </c>
       <c r="J196">
@@ -10195,6 +10785,9 @@
       </c>
       <c r="P196">
         <v>10.59487235101506</v>
+      </c>
+      <c r="Q196" s="2">
+        <v>43891</v>
       </c>
     </row>
     <row r="197">
@@ -10222,7 +10815,7 @@
       <c r="H197">
         <v>10.60062341770666</v>
       </c>
-      <c r="I197" s="2">
+      <c r="I197" s="3">
         <v>43922</v>
       </c>
       <c r="J197">
@@ -10245,6 +10838,9 @@
       </c>
       <c r="P197">
         <v>10.5940578451945</v>
+      </c>
+      <c r="Q197" s="2">
+        <v>43922</v>
       </c>
     </row>
     <row r="198">
@@ -10272,7 +10868,7 @@
       <c r="H198">
         <v>10.60062341770666</v>
       </c>
-      <c r="I198" s="2">
+      <c r="I198" s="3">
         <v>43952</v>
       </c>
       <c r="J198">
@@ -10295,6 +10891,9 @@
       </c>
       <c r="P198">
         <v>10.5940757752188</v>
+      </c>
+      <c r="Q198" s="2">
+        <v>43952</v>
       </c>
     </row>
     <row r="199">
@@ -10322,7 +10921,7 @@
       <c r="H199">
         <v>10.60062341770666</v>
       </c>
-      <c r="I199" s="2">
+      <c r="I199" s="3">
         <v>43983</v>
       </c>
       <c r="J199">
@@ -10345,6 +10944,9 @@
       </c>
       <c r="P199">
         <v>10.59492614108795</v>
+      </c>
+      <c r="Q199" s="2">
+        <v>43983</v>
       </c>
     </row>
     <row r="200">
@@ -10372,7 +10974,7 @@
       <c r="H200">
         <v>10.60062341770666</v>
       </c>
-      <c r="I200" s="2">
+      <c r="I200" s="3">
         <v>44013</v>
       </c>
       <c r="J200">
@@ -10395,6 +10997,9 @@
       </c>
       <c r="P200">
         <v>10.59660894280195</v>
+      </c>
+      <c r="Q200" s="2">
+        <v>44013</v>
       </c>
     </row>
     <row r="201">
@@ -10422,7 +11027,7 @@
       <c r="H201">
         <v>10.60062341770666</v>
       </c>
-      <c r="I201" s="2">
+      <c r="I201" s="3">
         <v>44044</v>
       </c>
       <c r="J201">
@@ -10445,6 +11050,9 @@
       </c>
       <c r="P201">
         <v>10.59912418036081</v>
+      </c>
+      <c r="Q201" s="2">
+        <v>44044</v>
       </c>
     </row>
     <row r="202">
@@ -10472,7 +11080,7 @@
       <c r="H202">
         <v>10.60062341770666</v>
       </c>
-      <c r="I202" s="2">
+      <c r="I202" s="3">
         <v>44075</v>
       </c>
       <c r="J202">
@@ -10495,6 +11103,9 @@
       </c>
       <c r="P202">
         <v>10.60247185376452</v>
+      </c>
+      <c r="Q202" s="2">
+        <v>44075</v>
       </c>
     </row>
     <row r="203">
@@ -10522,7 +11133,7 @@
       <c r="H203">
         <v>10.60062341770666</v>
       </c>
-      <c r="I203" s="2">
+      <c r="I203" s="3">
         <v>44105</v>
       </c>
       <c r="J203">
@@ -10545,6 +11156,9 @@
       </c>
       <c r="P203">
         <v>10.60665196301309</v>
+      </c>
+      <c r="Q203" s="2">
+        <v>44105</v>
       </c>
     </row>
     <row r="204">
@@ -10572,7 +11186,7 @@
       <c r="H204">
         <v>10.60062341770666</v>
       </c>
-      <c r="I204" s="2">
+      <c r="I204" s="3">
         <v>44136</v>
       </c>
       <c r="J204">
@@ -10595,6 +11209,9 @@
       </c>
       <c r="P204">
         <v>10.61166450810651</v>
+      </c>
+      <c r="Q204" s="2">
+        <v>44136</v>
       </c>
     </row>
     <row r="205">
@@ -10622,7 +11239,7 @@
       <c r="H205">
         <v>10.60062341770666</v>
       </c>
-      <c r="I205" s="2">
+      <c r="I205" s="3">
         <v>44166</v>
       </c>
       <c r="J205">
@@ -10645,6 +11262,9 @@
       </c>
       <c r="P205">
         <v>10.61750948904479</v>
+      </c>
+      <c r="Q205" s="2">
+        <v>44166</v>
       </c>
     </row>
     <row r="206">
@@ -10672,7 +11292,7 @@
       <c r="H206">
         <v>10.6005069264694</v>
       </c>
-      <c r="I206" s="2">
+      <c r="I206" s="3">
         <v>44197</v>
       </c>
       <c r="J206">
@@ -10695,6 +11315,9 @@
       </c>
       <c r="P206">
         <v>10.62418690582792</v>
+      </c>
+      <c r="Q206" s="2">
+        <v>44197</v>
       </c>
     </row>
     <row r="207">
@@ -10722,7 +11345,7 @@
       <c r="H207">
         <v>10.6005069264694</v>
       </c>
-      <c r="I207" s="2">
+      <c r="I207" s="3">
         <v>44228</v>
       </c>
       <c r="J207">
@@ -10745,6 +11368,9 @@
       </c>
       <c r="P207">
         <v>10.628329814709</v>
+      </c>
+      <c r="Q207" s="2">
+        <v>44228</v>
       </c>
     </row>
     <row r="208">
@@ -10772,7 +11398,7 @@
       <c r="H208">
         <v>10.6005069264694</v>
       </c>
-      <c r="I208" s="2">
+      <c r="I208" s="3">
         <v>44256</v>
       </c>
       <c r="J208">
@@ -10795,6 +11421,9 @@
       </c>
       <c r="P208">
         <v>10.629938215688</v>
+      </c>
+      <c r="Q208" s="2">
+        <v>44256</v>
       </c>
     </row>
     <row r="209">
@@ -10822,7 +11451,7 @@
       <c r="H209">
         <v>10.6005069264694</v>
       </c>
-      <c r="I209" s="2">
+      <c r="I209" s="3">
         <v>44287</v>
       </c>
       <c r="J209">
@@ -10845,6 +11474,9 @@
       </c>
       <c r="P209">
         <v>10.62901210876495</v>
+      </c>
+      <c r="Q209" s="2">
+        <v>44287</v>
       </c>
     </row>
     <row r="210">
@@ -10872,7 +11504,7 @@
       <c r="H210">
         <v>10.6005069264694</v>
       </c>
-      <c r="I210" s="2">
+      <c r="I210" s="3">
         <v>44317</v>
       </c>
       <c r="J210">
@@ -10895,6 +11527,9 @@
       </c>
       <c r="P210">
         <v>10.62555149393983</v>
+      </c>
+      <c r="Q210" s="2">
+        <v>44317</v>
       </c>
     </row>
     <row r="211">
@@ -10922,7 +11557,7 @@
       <c r="H211">
         <v>10.6005069264694</v>
       </c>
-      <c r="I211" s="2">
+      <c r="I211" s="3">
         <v>44348</v>
       </c>
       <c r="J211">
@@ -10945,6 +11580,9 @@
       </c>
       <c r="P211">
         <v>10.61955637121265</v>
+      </c>
+      <c r="Q211" s="2">
+        <v>44348</v>
       </c>
     </row>
     <row r="212">
@@ -10972,7 +11610,7 @@
       <c r="H212">
         <v>10.6005069264694</v>
       </c>
-      <c r="I212" s="2">
+      <c r="I212" s="3">
         <v>44378</v>
       </c>
       <c r="J212">
@@ -10995,6 +11633,9 @@
       </c>
       <c r="P212">
         <v>10.61102674058341</v>
+      </c>
+      <c r="Q212" s="2">
+        <v>44378</v>
       </c>
     </row>
     <row r="213">
@@ -11022,7 +11663,7 @@
       <c r="H213">
         <v>10.6005069264694</v>
       </c>
-      <c r="I213" s="2">
+      <c r="I213" s="3">
         <v>44409</v>
       </c>
       <c r="J213">
@@ -11045,6 +11686,9 @@
       </c>
       <c r="P213">
         <v>10.59996260205211</v>
+      </c>
+      <c r="Q213" s="2">
+        <v>44409</v>
       </c>
     </row>
     <row r="214">
@@ -11072,7 +11716,7 @@
       <c r="H214">
         <v>10.6005069264694</v>
       </c>
-      <c r="I214" s="2">
+      <c r="I214" s="3">
         <v>44440</v>
       </c>
       <c r="J214">
@@ -11095,6 +11739,9 @@
       </c>
       <c r="P214">
         <v>10.58636395561874</v>
+      </c>
+      <c r="Q214" s="2">
+        <v>44440</v>
       </c>
     </row>
     <row r="215">
@@ -11122,7 +11769,7 @@
       <c r="H215">
         <v>10.6005069264694</v>
       </c>
-      <c r="I215" s="2">
+      <c r="I215" s="3">
         <v>44470</v>
       </c>
       <c r="J215">
@@ -11145,6 +11792,9 @@
       </c>
       <c r="P215">
         <v>10.57023080128331</v>
+      </c>
+      <c r="Q215" s="2">
+        <v>44470</v>
       </c>
     </row>
     <row r="216">
@@ -11172,7 +11822,7 @@
       <c r="H216">
         <v>10.6005069264694</v>
       </c>
-      <c r="I216" s="2">
+      <c r="I216" s="3">
         <v>44501</v>
       </c>
       <c r="J216">
@@ -11195,6 +11845,9 @@
       </c>
       <c r="P216">
         <v>10.55156313904582</v>
+      </c>
+      <c r="Q216" s="2">
+        <v>44501</v>
       </c>
     </row>
     <row r="217">
@@ -11222,7 +11875,7 @@
       <c r="H217">
         <v>10.6005069264694</v>
       </c>
-      <c r="I217" s="2">
+      <c r="I217" s="3">
         <v>44531</v>
       </c>
       <c r="J217">
@@ -11245,6 +11898,9 @@
       </c>
       <c r="P217">
         <v>10.53036096890627</v>
+      </c>
+      <c r="Q217" s="2">
+        <v>44531</v>
       </c>
     </row>
     <row r="218">
@@ -11272,7 +11928,7 @@
       <c r="H218">
         <v>10.43646844572895</v>
       </c>
-      <c r="I218" s="2">
+      <c r="I218" s="3">
         <v>44562</v>
       </c>
       <c r="J218">
@@ -11295,6 +11951,9 @@
       </c>
       <c r="P218">
         <v>10.50662429086465</v>
+      </c>
+      <c r="Q218" s="2">
+        <v>44562</v>
       </c>
     </row>
     <row r="219">
@@ -11322,7 +11981,7 @@
       <c r="H219">
         <v>10.43646844572895</v>
       </c>
-      <c r="I219" s="2">
+      <c r="I219" s="3">
         <v>44593</v>
       </c>
       <c r="J219">
@@ -11345,6 +12004,9 @@
       </c>
       <c r="P219">
         <v>10.48542170586191</v>
+      </c>
+      <c r="Q219" s="2">
+        <v>44593</v>
       </c>
     </row>
     <row r="220">
@@ -11372,7 +12034,7 @@
       <c r="H220">
         <v>10.43646844572895</v>
       </c>
-      <c r="I220" s="2">
+      <c r="I220" s="3">
         <v>44621</v>
       </c>
       <c r="J220">
@@ -11395,6 +12057,9 @@
       </c>
       <c r="P220">
         <v>10.46675321389804</v>
+      </c>
+      <c r="Q220" s="2">
+        <v>44621</v>
       </c>
     </row>
     <row r="221">
@@ -11422,7 +12087,7 @@
       <c r="H221">
         <v>10.43646844572895</v>
       </c>
-      <c r="I221" s="2">
+      <c r="I221" s="3">
         <v>44652</v>
       </c>
       <c r="J221">
@@ -11445,6 +12110,9 @@
       </c>
       <c r="P221">
         <v>10.45061881497304</v>
+      </c>
+      <c r="Q221" s="2">
+        <v>44652</v>
       </c>
     </row>
     <row r="222">
@@ -11472,7 +12140,7 @@
       <c r="H222">
         <v>10.43646844572895</v>
       </c>
-      <c r="I222" s="2">
+      <c r="I222" s="3">
         <v>44682</v>
       </c>
       <c r="J222">
@@ -11495,6 +12163,9 @@
       </c>
       <c r="P222">
         <v>10.43701850908691</v>
+      </c>
+      <c r="Q222" s="2">
+        <v>44682</v>
       </c>
     </row>
     <row r="223">
@@ -11522,7 +12193,7 @@
       <c r="H223">
         <v>10.43646844572895</v>
       </c>
-      <c r="I223" s="2">
+      <c r="I223" s="3">
         <v>44713</v>
       </c>
       <c r="J223">
@@ -11545,6 +12216,9 @@
       </c>
       <c r="P223">
         <v>10.42595229623966</v>
+      </c>
+      <c r="Q223" s="2">
+        <v>44713</v>
       </c>
     </row>
     <row r="224">
@@ -11572,7 +12246,7 @@
       <c r="H224">
         <v>10.43646844572895</v>
       </c>
-      <c r="I224" s="2">
+      <c r="I224" s="3">
         <v>44743</v>
       </c>
       <c r="J224">
@@ -11595,6 +12269,9 @@
       </c>
       <c r="P224">
         <v>10.41742017643127</v>
+      </c>
+      <c r="Q224" s="2">
+        <v>44743</v>
       </c>
     </row>
     <row r="225">
@@ -11622,7 +12299,7 @@
       <c r="H225">
         <v>10.43646844572895</v>
       </c>
-      <c r="I225" s="2">
+      <c r="I225" s="3">
         <v>44774</v>
       </c>
       <c r="J225">
@@ -11645,6 +12322,9 @@
       </c>
       <c r="P225">
         <v>10.41142214966176</v>
+      </c>
+      <c r="Q225" s="2">
+        <v>44774</v>
       </c>
     </row>
     <row r="226">
@@ -11672,7 +12352,7 @@
       <c r="H226">
         <v>10.43646844572895</v>
       </c>
-      <c r="I226" s="2">
+      <c r="I226" s="3">
         <v>44805</v>
       </c>
       <c r="J226">
@@ -11695,6 +12375,9 @@
       </c>
       <c r="P226">
         <v>10.40795821593112</v>
+      </c>
+      <c r="Q226" s="2">
+        <v>44805</v>
       </c>
     </row>
     <row r="227">
@@ -11722,7 +12405,7 @@
       <c r="H227">
         <v>10.43646844572895</v>
       </c>
-      <c r="I227" s="2">
+      <c r="I227" s="3">
         <v>44835</v>
       </c>
       <c r="J227">
@@ -11745,6 +12428,9 @@
       </c>
       <c r="P227">
         <v>10.40702837523935</v>
+      </c>
+      <c r="Q227" s="2">
+        <v>44835</v>
       </c>
     </row>
     <row r="228">
@@ -11772,7 +12458,7 @@
       <c r="H228">
         <v>10.43646844572895</v>
       </c>
-      <c r="I228" s="2">
+      <c r="I228" s="3">
         <v>44866</v>
       </c>
       <c r="J228">
@@ -11795,6 +12481,9 @@
       </c>
       <c r="P228">
         <v>10.40863262758645</v>
+      </c>
+      <c r="Q228" s="2">
+        <v>44866</v>
       </c>
     </row>
     <row r="229">
@@ -11822,7 +12511,7 @@
       <c r="H229">
         <v>10.43646844572895</v>
       </c>
-      <c r="I229" s="2">
+      <c r="I229" s="3">
         <v>44896</v>
       </c>
       <c r="J229">
@@ -11845,6 +12534,9 @@
       </c>
       <c r="P229">
         <v>10.41277097297243</v>
+      </c>
+      <c r="Q229" s="2">
+        <v>44896</v>
       </c>
     </row>
     <row r="230">
@@ -11872,7 +12564,7 @@
       <c r="H230">
         <v>10.42956076868985</v>
       </c>
-      <c r="I230" s="2">
+      <c r="I230" s="3">
         <v>44927</v>
       </c>
       <c r="J230">
@@ -11895,6 +12587,9 @@
       </c>
       <c r="P230">
         <v>10.41944341139727</v>
+      </c>
+      <c r="Q230" s="2">
+        <v>44927</v>
       </c>
     </row>
     <row r="231">
@@ -11922,7 +12617,7 @@
       <c r="H231">
         <v>10.42956076868985</v>
       </c>
-      <c r="I231" s="2">
+      <c r="I231" s="3">
         <v>44958</v>
       </c>
       <c r="J231">
@@ -11945,6 +12640,9 @@
       </c>
       <c r="P231">
         <v>10.42500056084125</v>
+      </c>
+      <c r="Q231" s="2">
+        <v>44958</v>
       </c>
     </row>
     <row r="232">
@@ -11972,7 +12670,7 @@
       <c r="H232">
         <v>10.42956076868985</v>
       </c>
-      <c r="I232" s="2">
+      <c r="I232" s="3">
         <v>44986</v>
       </c>
       <c r="J232">
@@ -11995,6 +12693,9 @@
       </c>
       <c r="P232">
         <v>10.42944242130435</v>
+      </c>
+      <c r="Q232" s="2">
+        <v>44986</v>
       </c>
     </row>
     <row r="233">
@@ -12022,7 +12723,7 @@
       <c r="H233">
         <v>10.42956076868985</v>
       </c>
-      <c r="I233" s="2">
+      <c r="I233" s="3">
         <v>45017</v>
       </c>
       <c r="J233">
@@ -12045,6 +12746,9 @@
       </c>
       <c r="P233">
         <v>10.43276899278658</v>
+      </c>
+      <c r="Q233" s="2">
+        <v>45017</v>
       </c>
     </row>
     <row r="234">
@@ -12072,7 +12776,7 @@
       <c r="H234">
         <v>10.42956076868985</v>
       </c>
-      <c r="I234" s="2">
+      <c r="I234" s="3">
         <v>45047</v>
       </c>
       <c r="J234">
@@ -12095,6 +12799,9 @@
       </c>
       <c r="P234">
         <v>10.43498027528793</v>
+      </c>
+      <c r="Q234" s="2">
+        <v>45047</v>
       </c>
     </row>
     <row r="235">
@@ -12122,7 +12829,7 @@
       <c r="H235">
         <v>10.42956076868985</v>
       </c>
-      <c r="I235" s="2">
+      <c r="I235" s="3">
         <v>45078</v>
       </c>
       <c r="J235">
@@ -12145,6 +12852,9 @@
       </c>
       <c r="P235">
         <v>10.43607626880841</v>
+      </c>
+      <c r="Q235" s="2">
+        <v>45078</v>
       </c>
     </row>
     <row r="236">
@@ -12172,7 +12882,7 @@
       <c r="H236">
         <v>10.42956076868985</v>
       </c>
-      <c r="I236" s="2">
+      <c r="I236" s="3">
         <v>45108</v>
       </c>
       <c r="J236">
@@ -12195,6 +12905,9 @@
       </c>
       <c r="P236">
         <v>10.43605697334802</v>
+      </c>
+      <c r="Q236" s="2">
+        <v>45108</v>
       </c>
     </row>
     <row r="237">
@@ -12222,7 +12935,7 @@
       <c r="H237">
         <v>10.42956076868985</v>
       </c>
-      <c r="I237" s="2">
+      <c r="I237" s="3">
         <v>45139</v>
       </c>
       <c r="J237">
@@ -12245,6 +12958,9 @@
       </c>
       <c r="P237">
         <v>10.43492238890675</v>
+      </c>
+      <c r="Q237" s="2">
+        <v>45139</v>
       </c>
     </row>
     <row r="238">
@@ -12272,7 +12988,7 @@
       <c r="H238">
         <v>10.42956076868985</v>
       </c>
-      <c r="I238" s="2">
+      <c r="I238" s="3">
         <v>45170</v>
       </c>
       <c r="J238">
@@ -12295,6 +13011,9 @@
       </c>
       <c r="P238">
         <v>10.43267251548462</v>
+      </c>
+      <c r="Q238" s="2">
+        <v>45170</v>
       </c>
     </row>
     <row r="239">
@@ -12322,7 +13041,7 @@
       <c r="H239">
         <v>10.42956076868985</v>
       </c>
-      <c r="I239" s="2">
+      <c r="I239" s="3">
         <v>45200</v>
       </c>
       <c r="J239">
@@ -12345,6 +13064,9 @@
       </c>
       <c r="P239">
         <v>10.42930735308161</v>
+      </c>
+      <c r="Q239" s="2">
+        <v>45200</v>
       </c>
     </row>
     <row r="240">
@@ -12372,7 +13094,7 @@
       <c r="H240">
         <v>10.42956076868985</v>
       </c>
-      <c r="I240" s="2">
+      <c r="I240" s="3">
         <v>45231</v>
       </c>
       <c r="J240">
@@ -12395,6 +13117,9 @@
       </c>
       <c r="P240">
         <v>10.42482690169772</v>
+      </c>
+      <c r="Q240" s="2">
+        <v>45231</v>
       </c>
     </row>
     <row r="241">
@@ -12422,7 +13147,7 @@
       <c r="H241">
         <v>10.42956076868985</v>
       </c>
-      <c r="I241" s="2">
+      <c r="I241" s="3">
         <v>45261</v>
       </c>
       <c r="J241">
@@ -12445,6 +13170,9 @@
       </c>
       <c r="P241">
         <v>10.41923116133297</v>
+      </c>
+      <c r="Q241" s="2">
+        <v>45261</v>
       </c>
     </row>
     <row r="242">
@@ -12472,7 +13200,7 @@
       <c r="H242">
         <v>10.38893832053679</v>
       </c>
-      <c r="I242" s="2">
+      <c r="I242" s="3">
         <v>45292</v>
       </c>
       <c r="J242">
@@ -12495,6 +13223,9 @@
       </c>
       <c r="P242">
         <v>10.41252013198734</v>
+      </c>
+      <c r="Q242" s="2">
+        <v>45292</v>
       </c>
     </row>
     <row r="243">
@@ -12522,7 +13253,7 @@
       <c r="H243">
         <v>10.38893832053679</v>
       </c>
-      <c r="I243" s="2">
+      <c r="I243" s="3">
         <v>45323</v>
       </c>
       <c r="J243">
@@ -12545,6 +13276,9 @@
       </c>
       <c r="P243">
         <v>10.40636835508718</v>
+      </c>
+      <c r="Q243" s="2">
+        <v>45323</v>
       </c>
     </row>
     <row r="244">
@@ -12572,7 +13306,7 @@
       <c r="H244">
         <v>10.38893832053679</v>
       </c>
-      <c r="I244" s="2">
+      <c r="I244" s="3">
         <v>45352</v>
       </c>
       <c r="J244">
@@ -12595,6 +13329,9 @@
       </c>
       <c r="P244">
         <v>10.40077583063249</v>
+      </c>
+      <c r="Q244" s="2">
+        <v>45352</v>
       </c>
     </row>
     <row r="245">
@@ -12622,7 +13359,7 @@
       <c r="H245">
         <v>10.38893832053679</v>
       </c>
-      <c r="I245" s="2">
+      <c r="I245" s="3">
         <v>45383</v>
       </c>
       <c r="J245">
@@ -12645,6 +13382,9 @@
       </c>
       <c r="P245">
         <v>10.39574255862327</v>
+      </c>
+      <c r="Q245" s="2">
+        <v>45383</v>
       </c>
     </row>
     <row r="246">
@@ -12672,7 +13412,7 @@
       <c r="H246">
         <v>10.38893832053679</v>
       </c>
-      <c r="I246" s="2">
+      <c r="I246" s="3">
         <v>45413</v>
       </c>
       <c r="J246">
@@ -12695,6 +13435,9 @@
       </c>
       <c r="P246">
         <v>10.39126853905951</v>
+      </c>
+      <c r="Q246" s="2">
+        <v>45413</v>
       </c>
     </row>
     <row r="247">
@@ -12722,7 +13465,7 @@
       <c r="H247">
         <v>10.38893832053679</v>
       </c>
-      <c r="I247" s="2">
+      <c r="I247" s="3">
         <v>45444</v>
       </c>
       <c r="J247">
@@ -12745,6 +13488,9 @@
       </c>
       <c r="P247">
         <v>10.38735377194123</v>
+      </c>
+      <c r="Q247" s="2">
+        <v>45444</v>
       </c>
     </row>
     <row r="248">
@@ -12772,7 +13518,7 @@
       <c r="H248">
         <v>10.38893832053679</v>
       </c>
-      <c r="I248" s="2">
+      <c r="I248" s="3">
         <v>45474</v>
       </c>
       <c r="J248">
@@ -12795,6 +13541,9 @@
       </c>
       <c r="P248">
         <v>10.38399825726842</v>
+      </c>
+      <c r="Q248" s="2">
+        <v>45474</v>
       </c>
     </row>
     <row r="249">
@@ -12822,7 +13571,7 @@
       <c r="H249">
         <v>10.38893832053679</v>
       </c>
-      <c r="I249" s="2">
+      <c r="I249" s="3">
         <v>45505</v>
       </c>
       <c r="J249">
@@ -12845,6 +13594,9 @@
       </c>
       <c r="P249">
         <v>10.38120199504107</v>
+      </c>
+      <c r="Q249" s="2">
+        <v>45505</v>
       </c>
     </row>
     <row r="250">
@@ -12872,7 +13624,7 @@
       <c r="H250">
         <v>10.38893832053679</v>
       </c>
-      <c r="I250" s="2">
+      <c r="I250" s="3">
         <v>45536</v>
       </c>
       <c r="J250">
@@ -12895,6 +13647,9 @@
       </c>
       <c r="P250">
         <v>10.3789649852592</v>
+      </c>
+      <c r="Q250" s="2">
+        <v>45536</v>
       </c>
     </row>
     <row r="251">
@@ -12922,7 +13677,7 @@
       <c r="H251">
         <v>10.38893832053679</v>
       </c>
-      <c r="I251" s="2">
+      <c r="I251" s="3">
         <v>45566</v>
       </c>
       <c r="J251">
@@ -12945,6 +13700,9 @@
       </c>
       <c r="P251">
         <v>10.37728722792279</v>
+      </c>
+      <c r="Q251" s="2">
+        <v>45566</v>
       </c>
     </row>
     <row r="252">
@@ -12972,7 +13730,7 @@
       <c r="H252">
         <v>10.38893832053679</v>
       </c>
-      <c r="I252" s="2">
+      <c r="I252" s="3">
         <v>45597</v>
       </c>
       <c r="J252">
@@ -12995,6 +13753,9 @@
       </c>
       <c r="P252">
         <v>10.37616872303185</v>
+      </c>
+      <c r="Q252" s="2">
+        <v>45597</v>
       </c>
     </row>
     <row r="253">
@@ -13022,7 +13783,7 @@
       <c r="H253">
         <v>10.38893832053679</v>
       </c>
-      <c r="I253" s="2">
+      <c r="I253" s="3">
         <v>45627</v>
       </c>
       <c r="J253">
@@ -13045,6 +13806,9 @@
       </c>
       <c r="P253">
         <v>10.37560947058638</v>
+      </c>
+      <c r="Q253" s="2">
+        <v>45627</v>
       </c>
     </row>
   </sheetData>
